--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -2629,18 +2629,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2654,6 +2642,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2705,7 +2705,7 @@
         <xdr:cNvPr id="4" name="Picture 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2757,7 +2757,7 @@
         <xdr:cNvPr id="5" name="Picture 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2809,7 +2809,7 @@
         <xdr:cNvPr id="6" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2861,7 +2861,7 @@
         <xdr:cNvPr id="7" name="Picture 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2913,7 +2913,7 @@
         <xdr:cNvPr id="8" name="Picture 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +2965,7 @@
         <xdr:cNvPr id="9" name="Picture 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3017,7 +3017,7 @@
         <xdr:cNvPr id="10" name="Picture 660">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3069,7 +3069,7 @@
         <xdr:cNvPr id="11" name="Picture 684">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3121,7 +3121,7 @@
         <xdr:cNvPr id="12" name="Picture 3202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3173,7 +3173,7 @@
         <xdr:cNvPr id="13" name="Picture 5914">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3225,7 +3225,7 @@
         <xdr:cNvPr id="14" name="Picture 12691">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3277,7 +3277,7 @@
         <xdr:cNvPr id="15" name="Picture 12693">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3329,7 +3329,7 @@
         <xdr:cNvPr id="16" name="Picture 13942">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3381,7 +3381,7 @@
         <xdr:cNvPr id="17" name="Picture 14074">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3433,7 +3433,7 @@
         <xdr:cNvPr id="18" name="Picture 14409">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3485,7 +3485,7 @@
         <xdr:cNvPr id="19" name="Picture 14411">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3537,7 +3537,7 @@
         <xdr:cNvPr id="20" name="Picture 16000">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3583,7 +3583,7 @@
         <xdr:cNvPr id="21" name="Picture 16002">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3629,7 +3629,7 @@
         <xdr:cNvPr id="24" name="Picture 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3681,7 +3681,7 @@
         <xdr:cNvPr id="26" name="Picture 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3733,7 +3733,7 @@
         <xdr:cNvPr id="27" name="Picture 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3785,7 +3785,7 @@
         <xdr:cNvPr id="28" name="Picture 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3837,7 +3837,7 @@
         <xdr:cNvPr id="31" name="Picture 3202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3889,7 +3889,7 @@
         <xdr:cNvPr id="32" name="Picture 5914">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3941,7 +3941,7 @@
         <xdr:cNvPr id="94" name="Picture 666">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3993,7 +3993,7 @@
         <xdr:cNvPr id="95" name="Picture 668">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4045,7 +4045,7 @@
         <xdr:cNvPr id="96" name="Picture 672">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000060000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4097,7 +4097,7 @@
         <xdr:cNvPr id="97" name="Picture 674">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4149,7 +4149,7 @@
         <xdr:cNvPr id="99" name="Picture 678">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4201,7 +4201,7 @@
         <xdr:cNvPr id="100" name="Picture 680">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4253,7 +4253,7 @@
         <xdr:cNvPr id="101" name="Picture 690">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4305,7 +4305,7 @@
         <xdr:cNvPr id="104" name="Picture 2318">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4357,7 +4357,7 @@
         <xdr:cNvPr id="105" name="Picture 12599">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000069000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4409,7 +4409,7 @@
         <xdr:cNvPr id="106" name="Picture 12683">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4461,7 +4461,7 @@
         <xdr:cNvPr id="107" name="Picture 12685">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4513,7 +4513,7 @@
         <xdr:cNvPr id="108" name="Picture 12687">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4565,7 +4565,7 @@
         <xdr:cNvPr id="109" name="Picture 13120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4617,7 +4617,7 @@
         <xdr:cNvPr id="111" name="Picture 13944">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4669,7 +4669,7 @@
         <xdr:cNvPr id="112" name="Picture 13946">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000070000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4721,7 +4721,7 @@
         <xdr:cNvPr id="113" name="Picture 13954">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000071000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4773,7 +4773,7 @@
         <xdr:cNvPr id="114" name="Picture 13956">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000072000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4825,7 +4825,7 @@
         <xdr:cNvPr id="115" name="Picture 14076">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000073000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4877,7 +4877,7 @@
         <xdr:cNvPr id="116" name="Picture 14078">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000074000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4929,7 +4929,7 @@
         <xdr:cNvPr id="117" name="Picture 14080">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4981,7 +4981,7 @@
         <xdr:cNvPr id="118" name="Picture 14413">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000076000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5033,7 +5033,7 @@
         <xdr:cNvPr id="119" name="Picture 16004">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000077000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5079,7 +5079,7 @@
         <xdr:cNvPr id="1075" name="Picture 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5125,7 +5125,7 @@
         <xdr:cNvPr id="1077" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000035040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5171,7 +5171,7 @@
         <xdr:cNvPr id="1079" name="Picture 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000037040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5217,7 +5217,7 @@
         <xdr:cNvPr id="1083" name="Picture 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003B040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5263,7 +5263,7 @@
         <xdr:cNvPr id="1085" name="Picture 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003D040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5309,7 +5309,7 @@
         <xdr:cNvPr id="1087" name="Picture 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003F040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5355,7 +5355,7 @@
         <xdr:cNvPr id="1089" name="Picture 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000041040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5401,7 +5401,7 @@
         <xdr:cNvPr id="1093" name="Picture 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000045040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5447,7 +5447,7 @@
         <xdr:cNvPr id="1095" name="Picture 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000047040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5493,7 +5493,7 @@
         <xdr:cNvPr id="1097" name="Picture 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000049040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5539,7 +5539,7 @@
         <xdr:cNvPr id="1101" name="Picture 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004D040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5585,7 +5585,7 @@
         <xdr:cNvPr id="1103" name="Picture 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5631,7 +5631,7 @@
         <xdr:cNvPr id="1109" name="Picture 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000055040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5677,7 +5677,7 @@
         <xdr:cNvPr id="1111" name="Picture 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000057040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5723,7 +5723,7 @@
         <xdr:cNvPr id="1115" name="Picture 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005B040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5769,7 +5769,7 @@
         <xdr:cNvPr id="1119" name="Picture 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005F040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005F040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5815,7 +5815,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5868,7 +5868,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5921,7 +5921,7 @@
         <xdr:cNvPr id="1029" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5974,7 +5974,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6027,7 +6027,7 @@
         <xdr:cNvPr id="1027" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6080,7 +6080,7 @@
         <xdr:cNvPr id="33" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6133,7 +6133,7 @@
         <xdr:cNvPr id="34" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6186,7 +6186,7 @@
         <xdr:cNvPr id="3075" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000030C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000030C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6239,7 +6239,7 @@
         <xdr:cNvPr id="3076" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000040C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000040C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6292,7 +6292,7 @@
         <xdr:cNvPr id="3077" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000050C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000050C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6345,7 +6345,7 @@
         <xdr:cNvPr id="3078" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000060C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000060C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6398,7 +6398,7 @@
         <xdr:cNvPr id="3079" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000070C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000070C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6451,7 +6451,7 @@
         <xdr:cNvPr id="3080" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000080C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000080C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6504,7 +6504,7 @@
         <xdr:cNvPr id="3081" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000090C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000090C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6557,7 +6557,7 @@
         <xdr:cNvPr id="29" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6610,7 +6610,7 @@
         <xdr:cNvPr id="35" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6663,7 +6663,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6716,7 +6716,7 @@
         <xdr:cNvPr id="36" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6769,7 +6769,7 @@
         <xdr:cNvPr id="37" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6822,7 +6822,7 @@
         <xdr:cNvPr id="38" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6875,7 +6875,7 @@
         <xdr:cNvPr id="40" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6928,7 +6928,7 @@
         <xdr:cNvPr id="1031" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6981,7 +6981,7 @@
         <xdr:cNvPr id="1032" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7034,7 +7034,7 @@
         <xdr:cNvPr id="1033" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7087,7 +7087,7 @@
         <xdr:cNvPr id="1034" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7140,7 +7140,7 @@
         <xdr:cNvPr id="1035" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7193,7 +7193,7 @@
         <xdr:cNvPr id="1036" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7246,7 +7246,7 @@
         <xdr:cNvPr id="1037" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7299,7 +7299,7 @@
         <xdr:cNvPr id="1038" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7352,7 +7352,7 @@
         <xdr:cNvPr id="1039" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7405,7 +7405,7 @@
         <xdr:cNvPr id="39" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7458,7 +7458,7 @@
         <xdr:cNvPr id="3074" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7511,7 +7511,7 @@
         <xdr:cNvPr id="42" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7564,7 +7564,7 @@
         <xdr:cNvPr id="43" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7617,7 +7617,7 @@
         <xdr:cNvPr id="44" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7670,7 +7670,7 @@
         <xdr:cNvPr id="45" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7723,7 +7723,7 @@
         <xdr:cNvPr id="46" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7776,7 +7776,7 @@
         <xdr:cNvPr id="47" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7829,7 +7829,7 @@
         <xdr:cNvPr id="48" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7882,7 +7882,7 @@
         <xdr:cNvPr id="49" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7935,7 +7935,7 @@
         <xdr:cNvPr id="51" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7988,7 +7988,7 @@
         <xdr:cNvPr id="52" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8041,7 +8041,7 @@
         <xdr:cNvPr id="53" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8094,7 +8094,7 @@
         <xdr:cNvPr id="128" name="Picture 127" descr="Danh sách don dt hàng - Google Chrome.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000080000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8138,7 +8138,7 @@
         <xdr:cNvPr id="129" name="Picture 128" descr="Danh sách don dt hàng - Google Chrome_2.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000081000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8182,7 +8182,7 @@
         <xdr:cNvPr id="130" name="Picture 129" descr="Danh sách don dt hàng - Google Chrome_3.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000082000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8226,7 +8226,7 @@
         <xdr:cNvPr id="131" name="Picture 130" descr="Danh sách don dt hàng - Google Chrome_4.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000083000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8270,7 +8270,7 @@
         <xdr:cNvPr id="137" name="Picture 136" descr="Danh sách don dt hàng - Google Chrome_5.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000089000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000089000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8314,7 +8314,7 @@
         <xdr:cNvPr id="138" name="Picture 137" descr="Danh sách don dt hàng - Google Chrome_6.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00008A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8358,7 +8358,7 @@
         <xdr:cNvPr id="126" name="Picture 125" descr="Danh sách don dt hàng - Google Chrome.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8402,7 +8402,7 @@
         <xdr:cNvPr id="127" name="Picture 126" descr="Danh sách don dt hàng - Google Chrome_2.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00007F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8446,7 +8446,7 @@
         <xdr:cNvPr id="133" name="Picture 132" descr="_ -  - Google Chrome.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000085000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8490,7 +8490,7 @@
         <xdr:cNvPr id="134" name="Picture 133" descr="_ -  - Google Chrome_2.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000086000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000086000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8534,7 +8534,7 @@
         <xdr:cNvPr id="135" name="Picture 134" descr="Danh sách don dt hàng - Google Chrome.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000087000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000087000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8578,7 +8578,7 @@
         <xdr:cNvPr id="132" name="Picture 131" descr="_2016 -  - Google Chrome.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000084000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8622,7 +8622,7 @@
         <xdr:cNvPr id="136" name="Picture 135" descr="_2016 -  - Google Chrome_2.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000088000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8666,7 +8666,7 @@
         <xdr:cNvPr id="139" name="Picture 138" descr="_2016 -  - Google Chrome_3.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00008B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8710,7 +8710,7 @@
         <xdr:cNvPr id="142" name="Picture 141" descr="Danh sách don dt hàng - Google Chrome_11.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00008E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8754,7 +8754,7 @@
         <xdr:cNvPr id="143" name="Picture 142" descr="Danh sách don dt hàng - Google Chrome_16.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00008F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8798,7 +8798,7 @@
         <xdr:cNvPr id="144" name="Picture 143" descr="_2016 -  - Google Chrome_3.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000090000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000090000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8842,7 +8842,7 @@
         <xdr:cNvPr id="145" name="Picture 144" descr="_2016 -  - Google Chrome_2.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8886,7 +8886,7 @@
         <xdr:cNvPr id="146" name="Picture 145" descr="Danh sách don dt hàng - Google Chrome.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000092000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000092000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8930,7 +8930,7 @@
         <xdr:cNvPr id="147" name="Picture 146" descr="Danh sách don dt hàng - Google Chrome_2.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000093000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000093000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8974,7 +8974,7 @@
         <xdr:cNvPr id="140" name="Picture 139" descr="Danh sách don dt hàng - Google Chrome_5.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00008C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9018,7 +9018,7 @@
         <xdr:cNvPr id="141" name="Picture 140" descr="q8.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9062,7 +9062,7 @@
         <xdr:cNvPr id="148" name="Picture 147" descr="_2016 -  - Google Chrome_3.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000094000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000094000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9106,7 +9106,7 @@
         <xdr:cNvPr id="149" name="Picture 148" descr="_ -  - Google Chrome_3.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9150,7 +9150,7 @@
         <xdr:cNvPr id="150" name="Picture 149" descr="_2016 -  - Google Chrome_5.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000096000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000096000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9194,7 +9194,7 @@
         <xdr:cNvPr id="151" name="Picture 150" descr="_2016 -  - Google Chrome_2.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000097000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000097000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9238,7 +9238,7 @@
         <xdr:cNvPr id="152" name="Picture 151" descr="Danh sách don dt hàng - Google Chrome_4.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9442,7 +9442,7 @@
         <xdr:cNvPr id="2" name="Picture 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9494,7 +9494,7 @@
         <xdr:cNvPr id="3" name="Picture 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9546,7 +9546,7 @@
         <xdr:cNvPr id="4" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9598,7 +9598,7 @@
         <xdr:cNvPr id="5" name="Picture 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9650,7 +9650,7 @@
         <xdr:cNvPr id="6" name="Picture 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9702,7 +9702,7 @@
         <xdr:cNvPr id="7" name="Picture 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9754,7 +9754,7 @@
         <xdr:cNvPr id="8" name="Picture 660">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9806,7 +9806,7 @@
         <xdr:cNvPr id="9" name="Picture 684">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9858,7 +9858,7 @@
         <xdr:cNvPr id="10" name="Picture 3202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9910,7 +9910,7 @@
         <xdr:cNvPr id="11" name="Picture 5914">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9962,7 +9962,7 @@
         <xdr:cNvPr id="15" name="Picture 14074">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10014,7 +10014,7 @@
         <xdr:cNvPr id="16" name="Picture 14409">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10066,7 +10066,7 @@
         <xdr:cNvPr id="17" name="Picture 14411">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10118,7 +10118,7 @@
         <xdr:cNvPr id="20" name="Picture 16011">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10164,7 +10164,7 @@
         <xdr:cNvPr id="21" name="Picture 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10216,7 +10216,7 @@
         <xdr:cNvPr id="22" name="Picture 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10268,7 +10268,7 @@
         <xdr:cNvPr id="23" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10320,7 +10320,7 @@
         <xdr:cNvPr id="24" name="Picture 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10372,7 +10372,7 @@
         <xdr:cNvPr id="25" name="Picture 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10424,7 +10424,7 @@
         <xdr:cNvPr id="26" name="Picture 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10476,7 +10476,7 @@
         <xdr:cNvPr id="27" name="Picture 660">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10528,7 +10528,7 @@
         <xdr:cNvPr id="29" name="Picture 3202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10580,7 +10580,7 @@
         <xdr:cNvPr id="31" name="Picture 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10632,7 +10632,7 @@
         <xdr:cNvPr id="32" name="Picture 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10684,7 +10684,7 @@
         <xdr:cNvPr id="33" name="Picture 162">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10736,7 +10736,7 @@
         <xdr:cNvPr id="34" name="Picture 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10788,7 +10788,7 @@
         <xdr:cNvPr id="35" name="Picture 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10840,7 +10840,7 @@
         <xdr:cNvPr id="36" name="Picture 168">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10892,7 +10892,7 @@
         <xdr:cNvPr id="37" name="Picture 170">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10944,7 +10944,7 @@
         <xdr:cNvPr id="38" name="Picture 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10996,7 +10996,7 @@
         <xdr:cNvPr id="39" name="Picture 176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11048,7 +11048,7 @@
         <xdr:cNvPr id="40" name="Picture 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11100,7 +11100,7 @@
         <xdr:cNvPr id="41" name="Picture 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11152,7 +11152,7 @@
         <xdr:cNvPr id="42" name="Picture 184">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11204,7 +11204,7 @@
         <xdr:cNvPr id="44" name="Picture 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11256,7 +11256,7 @@
         <xdr:cNvPr id="45" name="Picture 194">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11308,7 +11308,7 @@
         <xdr:cNvPr id="46" name="Picture 196">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11360,7 +11360,7 @@
         <xdr:cNvPr id="47" name="Picture 198">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11412,7 +11412,7 @@
         <xdr:cNvPr id="48" name="Picture 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11464,7 +11464,7 @@
         <xdr:cNvPr id="51" name="Picture 1731">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11516,7 +11516,7 @@
         <xdr:cNvPr id="53" name="Picture 1735">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11568,7 +11568,7 @@
         <xdr:cNvPr id="54" name="Picture 1737">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11620,7 +11620,7 @@
         <xdr:cNvPr id="55" name="Picture 1739">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11672,7 +11672,7 @@
         <xdr:cNvPr id="56" name="Picture 1745">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11724,7 +11724,7 @@
         <xdr:cNvPr id="57" name="Picture 1747">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11776,7 +11776,7 @@
         <xdr:cNvPr id="58" name="Picture 1749">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11828,7 +11828,7 @@
         <xdr:cNvPr id="59" name="Picture 8902">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11880,7 +11880,7 @@
         <xdr:cNvPr id="60" name="Picture 8904">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11932,7 +11932,7 @@
         <xdr:cNvPr id="61" name="Picture 8906">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11984,7 +11984,7 @@
         <xdr:cNvPr id="62" name="Picture 8908">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12036,7 +12036,7 @@
         <xdr:cNvPr id="63" name="Picture 8912">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12088,7 +12088,7 @@
         <xdr:cNvPr id="64" name="Picture 8916">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12140,7 +12140,7 @@
         <xdr:cNvPr id="66" name="Picture 9207">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12192,7 +12192,7 @@
         <xdr:cNvPr id="69" name="Picture 9290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12244,7 +12244,7 @@
         <xdr:cNvPr id="70" name="Picture 13122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12296,7 +12296,7 @@
         <xdr:cNvPr id="71" name="Picture 13124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12348,7 +12348,7 @@
         <xdr:cNvPr id="72" name="Picture 13836">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12400,7 +12400,7 @@
         <xdr:cNvPr id="73" name="Picture 13838">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12452,7 +12452,7 @@
         <xdr:cNvPr id="74" name="Picture 13842">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12504,7 +12504,7 @@
         <xdr:cNvPr id="75" name="Picture 13940">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12556,7 +12556,7 @@
         <xdr:cNvPr id="76" name="Picture 15646">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12602,7 +12602,7 @@
         <xdr:cNvPr id="77" name="Picture 15648">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12648,7 +12648,7 @@
         <xdr:cNvPr id="78" name="Picture 15652">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12694,7 +12694,7 @@
         <xdr:cNvPr id="79" name="Picture 15654">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12740,7 +12740,7 @@
         <xdr:cNvPr id="2059" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12786,7 +12786,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12839,7 +12839,7 @@
         <xdr:cNvPr id="4097" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001100000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12892,7 +12892,7 @@
         <xdr:cNvPr id="4098" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002100000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12945,7 +12945,7 @@
         <xdr:cNvPr id="12" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12998,7 +12998,7 @@
         <xdr:cNvPr id="13" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13051,7 +13051,7 @@
         <xdr:cNvPr id="80" name="Picture 79" descr="_2016 -  - Google Chrome_3.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13095,7 +13095,7 @@
         <xdr:cNvPr id="81" name="Picture 80" descr="Danh sách don dt hàng - Google Chrome.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13139,7 +13139,7 @@
         <xdr:cNvPr id="82" name="Picture 81" descr="Danh sách don dt hàng - Google Chrome.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13183,7 +13183,7 @@
         <xdr:cNvPr id="83" name="Picture 82" descr="Danh sách don dt hàng - Google Chrome_2.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13227,7 +13227,7 @@
         <xdr:cNvPr id="84" name="Picture 83" descr="Danh sách don dt hàng - Google Chrome_3.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13271,7 +13271,7 @@
         <xdr:cNvPr id="86" name="Picture 85" descr="Danh sách don dt hàng - Google Chrome_8.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13315,7 +13315,7 @@
         <xdr:cNvPr id="87" name="Picture 86" descr="Danh sách don dt hàng - Google Chrome_9.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13359,7 +13359,7 @@
         <xdr:cNvPr id="88" name="Picture 87" descr="Danh sách don dt hàng - Google Chrome_10.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13403,7 +13403,7 @@
         <xdr:cNvPr id="89" name="Picture 88" descr="Danh sách don dt hàng - Google Chrome_12.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13447,7 +13447,7 @@
         <xdr:cNvPr id="90" name="Picture 89" descr="Danh sách don dt hàng - Google Chrome_13.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13491,7 +13491,7 @@
         <xdr:cNvPr id="91" name="Picture 90" descr="Danh sách don dt hàng - Google Chrome_14.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13535,7 +13535,7 @@
         <xdr:cNvPr id="92" name="Picture 91" descr="Danh sách don dt hàng - Google Chrome_15.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13579,7 +13579,7 @@
         <xdr:cNvPr id="85" name="Picture 84" descr="_2016 -  - Google Chrome.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13623,7 +13623,7 @@
         <xdr:cNvPr id="93" name="Picture 92" descr="_191 -  - Google Chrome.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13667,7 +13667,7 @@
         <xdr:cNvPr id="94" name="Picture 93" descr="Danh sách don dt hàng - Google Chrome.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13711,7 +13711,7 @@
         <xdr:cNvPr id="96" name="Picture 95" descr="Danh sách don dt hàng - Google Chrome_3.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13755,7 +13755,7 @@
         <xdr:cNvPr id="95" name="Picture 94" descr="Danh sách don dt hàng - Google Chrome.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13799,7 +13799,7 @@
         <xdr:cNvPr id="97" name="Picture 96" descr="Danh sách don dt hàng - Google Chrome_2.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13843,7 +13843,7 @@
         <xdr:cNvPr id="99" name="Picture 98" descr="_2016 -  - Google Chrome_6.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13930,7 +13930,7 @@
         <xdr:cNvPr id="2" name="Picture 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13982,7 +13982,7 @@
         <xdr:cNvPr id="3" name="Picture 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14034,7 +14034,7 @@
         <xdr:cNvPr id="4" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14086,7 +14086,7 @@
         <xdr:cNvPr id="5" name="Picture 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14138,7 +14138,7 @@
         <xdr:cNvPr id="6" name="Picture 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14190,7 +14190,7 @@
         <xdr:cNvPr id="7" name="Picture 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14242,7 +14242,7 @@
         <xdr:cNvPr id="8" name="Picture 660">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14294,7 +14294,7 @@
         <xdr:cNvPr id="9" name="Picture 684">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14346,7 +14346,7 @@
         <xdr:cNvPr id="10" name="Picture 3202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14398,7 +14398,7 @@
         <xdr:cNvPr id="11" name="Picture 5914">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14450,7 +14450,7 @@
         <xdr:cNvPr id="12" name="Picture 14074">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14502,7 +14502,7 @@
         <xdr:cNvPr id="13" name="Picture 14409">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14554,7 +14554,7 @@
         <xdr:cNvPr id="14" name="Picture 14411">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14606,7 +14606,7 @@
         <xdr:cNvPr id="15" name="Picture 16011">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14652,7 +14652,7 @@
         <xdr:cNvPr id="16" name="Picture 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14704,7 +14704,7 @@
         <xdr:cNvPr id="17" name="Picture 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14756,7 +14756,7 @@
         <xdr:cNvPr id="18" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14808,7 +14808,7 @@
         <xdr:cNvPr id="19" name="Picture 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14860,7 +14860,7 @@
         <xdr:cNvPr id="20" name="Picture 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14912,7 +14912,7 @@
         <xdr:cNvPr id="21" name="Picture 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14964,7 +14964,7 @@
         <xdr:cNvPr id="22" name="Picture 660">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15016,7 +15016,7 @@
         <xdr:cNvPr id="23" name="Picture 3202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15068,7 +15068,7 @@
         <xdr:cNvPr id="24" name="Picture 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15120,7 +15120,7 @@
         <xdr:cNvPr id="25" name="Picture 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15172,7 +15172,7 @@
         <xdr:cNvPr id="26" name="Picture 162">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15224,7 +15224,7 @@
         <xdr:cNvPr id="27" name="Picture 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15276,7 +15276,7 @@
         <xdr:cNvPr id="28" name="Picture 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15328,7 +15328,7 @@
         <xdr:cNvPr id="29" name="Picture 168">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15380,7 +15380,7 @@
         <xdr:cNvPr id="30" name="Picture 170">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15432,7 +15432,7 @@
         <xdr:cNvPr id="31" name="Picture 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15484,7 +15484,7 @@
         <xdr:cNvPr id="32" name="Picture 176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15536,7 +15536,7 @@
         <xdr:cNvPr id="33" name="Picture 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15588,7 +15588,7 @@
         <xdr:cNvPr id="34" name="Picture 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15640,7 +15640,7 @@
         <xdr:cNvPr id="35" name="Picture 184">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15692,7 +15692,7 @@
         <xdr:cNvPr id="36" name="Picture 186">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15744,7 +15744,7 @@
         <xdr:cNvPr id="37" name="Picture 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15796,7 +15796,7 @@
         <xdr:cNvPr id="38" name="Picture 194">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15848,7 +15848,7 @@
         <xdr:cNvPr id="39" name="Picture 196">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15900,7 +15900,7 @@
         <xdr:cNvPr id="40" name="Picture 198">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15952,7 +15952,7 @@
         <xdr:cNvPr id="41" name="Picture 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16004,7 +16004,7 @@
         <xdr:cNvPr id="42" name="Picture 276">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16056,7 +16056,7 @@
         <xdr:cNvPr id="43" name="Picture 682">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16108,7 +16108,7 @@
         <xdr:cNvPr id="44" name="Picture 1731">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16160,7 +16160,7 @@
         <xdr:cNvPr id="45" name="Picture 1733">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16212,7 +16212,7 @@
         <xdr:cNvPr id="46" name="Picture 1735">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16264,7 +16264,7 @@
         <xdr:cNvPr id="47" name="Picture 1737">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16316,7 +16316,7 @@
         <xdr:cNvPr id="48" name="Picture 1739">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16368,7 +16368,7 @@
         <xdr:cNvPr id="49" name="Picture 1745">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16420,7 +16420,7 @@
         <xdr:cNvPr id="50" name="Picture 1747">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16472,7 +16472,7 @@
         <xdr:cNvPr id="51" name="Picture 1749">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16524,7 +16524,7 @@
         <xdr:cNvPr id="53" name="Picture 8904">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16576,7 +16576,7 @@
         <xdr:cNvPr id="54" name="Picture 8906">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16628,7 +16628,7 @@
         <xdr:cNvPr id="56" name="Picture 8912">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16680,7 +16680,7 @@
         <xdr:cNvPr id="57" name="Picture 8916">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16732,7 +16732,7 @@
         <xdr:cNvPr id="58" name="Picture 9134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16784,7 +16784,7 @@
         <xdr:cNvPr id="59" name="Picture 9207">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16836,7 +16836,7 @@
         <xdr:cNvPr id="60" name="Picture 9209">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16888,7 +16888,7 @@
         <xdr:cNvPr id="61" name="Picture 9288">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16940,7 +16940,7 @@
         <xdr:cNvPr id="62" name="Picture 9290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16992,7 +16992,7 @@
         <xdr:cNvPr id="63" name="Picture 13122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17044,7 +17044,7 @@
         <xdr:cNvPr id="70" name="Picture 15648">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000046000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17090,7 +17090,7 @@
         <xdr:cNvPr id="73" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17142,7 +17142,7 @@
         <xdr:cNvPr id="75" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17194,7 +17194,7 @@
         <xdr:cNvPr id="76" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17246,7 +17246,7 @@
         <xdr:cNvPr id="77" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17298,7 +17298,7 @@
         <xdr:cNvPr id="78" name="Picture 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17350,7 +17350,7 @@
         <xdr:cNvPr id="79" name="Picture 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17402,7 +17402,7 @@
         <xdr:cNvPr id="80" name="Picture 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000050000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17454,7 +17454,7 @@
         <xdr:cNvPr id="81" name="Picture 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17506,7 +17506,7 @@
         <xdr:cNvPr id="83" name="Picture 12442">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000053000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17558,7 +17558,7 @@
         <xdr:cNvPr id="84" name="Picture 12520">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17610,7 +17610,7 @@
         <xdr:cNvPr id="85" name="Picture 12679">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17662,7 +17662,7 @@
         <xdr:cNvPr id="86" name="Picture 12681">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000056000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17714,7 +17714,7 @@
         <xdr:cNvPr id="87" name="Picture 13948">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000057000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17766,7 +17766,7 @@
         <xdr:cNvPr id="88" name="Picture 13950">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000058000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17818,7 +17818,7 @@
         <xdr:cNvPr id="89" name="Picture 13960">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000059000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17870,7 +17870,7 @@
         <xdr:cNvPr id="90" name="Picture 13962">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17922,7 +17922,7 @@
         <xdr:cNvPr id="92" name="Picture 14415">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17974,7 +17974,7 @@
         <xdr:cNvPr id="93" name="Picture 16006">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18020,7 +18020,7 @@
         <xdr:cNvPr id="94" name="Picture 16008">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18066,7 +18066,7 @@
         <xdr:cNvPr id="3082" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A0C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000A0C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18112,7 +18112,7 @@
         <xdr:cNvPr id="3086" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E0C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000E0C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18158,7 +18158,7 @@
         <xdr:cNvPr id="95" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18211,7 +18211,7 @@
         <xdr:cNvPr id="6146" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18264,7 +18264,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18317,7 +18317,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18370,7 +18370,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18423,7 +18423,7 @@
         <xdr:cNvPr id="52" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18476,7 +18476,7 @@
         <xdr:cNvPr id="55" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18529,7 +18529,7 @@
         <xdr:cNvPr id="96" name="Picture 95" descr="Danh sách don dt hàng - Google Chrome.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18573,7 +18573,7 @@
         <xdr:cNvPr id="103" name="Picture 102" descr="Danh sách don dt hàng - Google Chrome.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000067000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18617,7 +18617,7 @@
         <xdr:cNvPr id="97" name="Picture 96" descr="_2016 -  - Google Chrome_4.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18661,7 +18661,7 @@
         <xdr:cNvPr id="98" name="Picture 97" descr="bl0002.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000062000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18705,7 +18705,7 @@
         <xdr:cNvPr id="99" name="Picture 98" descr="Danh sách don dt hàng - Google Chrome_4.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18749,7 +18749,7 @@
         <xdr:cNvPr id="100" name="Picture 99" descr="_2016 -  - Google Chrome_4.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18798,7 +18798,7 @@
         <xdr:cNvPr id="23" name="Picture 1911">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18850,7 +18850,7 @@
         <xdr:cNvPr id="24" name="Picture 1913">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18902,7 +18902,7 @@
         <xdr:cNvPr id="25" name="Picture 1915">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18954,7 +18954,7 @@
         <xdr:cNvPr id="26" name="Picture 1917">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19006,7 +19006,7 @@
         <xdr:cNvPr id="28" name="Picture 1921">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19058,7 +19058,7 @@
         <xdr:cNvPr id="29" name="Picture 1923">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19110,7 +19110,7 @@
         <xdr:cNvPr id="30" name="Picture 1925">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19162,7 +19162,7 @@
         <xdr:cNvPr id="31" name="Picture 1927">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19214,7 +19214,7 @@
         <xdr:cNvPr id="8201" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009200000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000009200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19260,7 +19260,7 @@
         <xdr:cNvPr id="8205" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D200000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000D200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19311,7 +19311,7 @@
         <xdr:cNvPr id="2" name="Picture 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19363,7 +19363,7 @@
         <xdr:cNvPr id="3" name="Picture 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19415,7 +19415,7 @@
         <xdr:cNvPr id="4" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19467,7 +19467,7 @@
         <xdr:cNvPr id="5" name="Picture 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19519,7 +19519,7 @@
         <xdr:cNvPr id="6" name="Picture 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19571,7 +19571,7 @@
         <xdr:cNvPr id="7" name="Picture 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19623,7 +19623,7 @@
         <xdr:cNvPr id="8" name="Picture 660">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19675,7 +19675,7 @@
         <xdr:cNvPr id="9" name="Picture 684">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19727,7 +19727,7 @@
         <xdr:cNvPr id="10" name="Picture 3202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19779,7 +19779,7 @@
         <xdr:cNvPr id="11" name="Picture 5914">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19831,7 +19831,7 @@
         <xdr:cNvPr id="12" name="Picture 14074">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19883,7 +19883,7 @@
         <xdr:cNvPr id="13" name="Picture 14409">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19935,7 +19935,7 @@
         <xdr:cNvPr id="14" name="Picture 14411">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19987,7 +19987,7 @@
         <xdr:cNvPr id="15" name="Picture 16011">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20033,7 +20033,7 @@
         <xdr:cNvPr id="16" name="Picture 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20085,7 +20085,7 @@
         <xdr:cNvPr id="17" name="Picture 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20137,7 +20137,7 @@
         <xdr:cNvPr id="18" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20189,7 +20189,7 @@
         <xdr:cNvPr id="19" name="Picture 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20241,7 +20241,7 @@
         <xdr:cNvPr id="20" name="Picture 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20293,7 +20293,7 @@
         <xdr:cNvPr id="21" name="Picture 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20345,7 +20345,7 @@
         <xdr:cNvPr id="22" name="Picture 660">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20397,7 +20397,7 @@
         <xdr:cNvPr id="23" name="Picture 3202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20449,7 +20449,7 @@
         <xdr:cNvPr id="24" name="Picture 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20501,7 +20501,7 @@
         <xdr:cNvPr id="25" name="Picture 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20553,7 +20553,7 @@
         <xdr:cNvPr id="26" name="Picture 162">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20605,7 +20605,7 @@
         <xdr:cNvPr id="27" name="Picture 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20657,7 +20657,7 @@
         <xdr:cNvPr id="28" name="Picture 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20709,7 +20709,7 @@
         <xdr:cNvPr id="29" name="Picture 168">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20761,7 +20761,7 @@
         <xdr:cNvPr id="30" name="Picture 170">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20813,7 +20813,7 @@
         <xdr:cNvPr id="31" name="Picture 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20865,7 +20865,7 @@
         <xdr:cNvPr id="32" name="Picture 176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20917,7 +20917,7 @@
         <xdr:cNvPr id="33" name="Picture 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20969,7 +20969,7 @@
         <xdr:cNvPr id="34" name="Picture 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21021,7 +21021,7 @@
         <xdr:cNvPr id="35" name="Picture 184">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21073,7 +21073,7 @@
         <xdr:cNvPr id="36" name="Picture 186">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21125,7 +21125,7 @@
         <xdr:cNvPr id="37" name="Picture 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21177,7 +21177,7 @@
         <xdr:cNvPr id="38" name="Picture 194">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21229,7 +21229,7 @@
         <xdr:cNvPr id="39" name="Picture 196">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21281,7 +21281,7 @@
         <xdr:cNvPr id="40" name="Picture 198">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21333,7 +21333,7 @@
         <xdr:cNvPr id="41" name="Picture 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21385,7 +21385,7 @@
         <xdr:cNvPr id="42" name="Picture 276">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21437,7 +21437,7 @@
         <xdr:cNvPr id="43" name="Picture 682">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21489,7 +21489,7 @@
         <xdr:cNvPr id="44" name="Picture 1731">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21541,7 +21541,7 @@
         <xdr:cNvPr id="45" name="Picture 1733">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21593,7 +21593,7 @@
         <xdr:cNvPr id="46" name="Picture 1735">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21645,7 +21645,7 @@
         <xdr:cNvPr id="47" name="Picture 1737">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21697,7 +21697,7 @@
         <xdr:cNvPr id="48" name="Picture 1739">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21749,7 +21749,7 @@
         <xdr:cNvPr id="49" name="Picture 1745">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21801,7 +21801,7 @@
         <xdr:cNvPr id="50" name="Picture 1747">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21853,7 +21853,7 @@
         <xdr:cNvPr id="51" name="Picture 1749">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21905,7 +21905,7 @@
         <xdr:cNvPr id="52" name="Picture 8904">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21957,7 +21957,7 @@
         <xdr:cNvPr id="53" name="Picture 8906">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22009,7 +22009,7 @@
         <xdr:cNvPr id="54" name="Picture 8912">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22061,7 +22061,7 @@
         <xdr:cNvPr id="55" name="Picture 8916">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22113,7 +22113,7 @@
         <xdr:cNvPr id="56" name="Picture 9134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22165,7 +22165,7 @@
         <xdr:cNvPr id="57" name="Picture 9207">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22217,7 +22217,7 @@
         <xdr:cNvPr id="58" name="Picture 9209">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22269,7 +22269,7 @@
         <xdr:cNvPr id="59" name="Picture 9288">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22321,7 +22321,7 @@
         <xdr:cNvPr id="60" name="Picture 9290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22373,7 +22373,7 @@
         <xdr:cNvPr id="61" name="Picture 13122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22425,7 +22425,7 @@
         <xdr:cNvPr id="62" name="Picture 15648">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22471,7 +22471,7 @@
         <xdr:cNvPr id="63" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22523,7 +22523,7 @@
         <xdr:cNvPr id="64" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22575,7 +22575,7 @@
         <xdr:cNvPr id="65" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22627,7 +22627,7 @@
         <xdr:cNvPr id="66" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22679,7 +22679,7 @@
         <xdr:cNvPr id="67" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22731,7 +22731,7 @@
         <xdr:cNvPr id="68" name="Picture 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22783,7 +22783,7 @@
         <xdr:cNvPr id="69" name="Picture 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22835,7 +22835,7 @@
         <xdr:cNvPr id="70" name="Picture 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000046000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22887,7 +22887,7 @@
         <xdr:cNvPr id="71" name="Picture 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22939,7 +22939,7 @@
         <xdr:cNvPr id="72" name="Picture 688">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22991,7 +22991,7 @@
         <xdr:cNvPr id="76" name="Picture 12681">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23043,7 +23043,7 @@
         <xdr:cNvPr id="78" name="Picture 13950">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23095,7 +23095,7 @@
         <xdr:cNvPr id="80" name="Picture 13962">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000050000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23147,7 +23147,7 @@
         <xdr:cNvPr id="84" name="Picture 16008">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23193,7 +23193,7 @@
         <xdr:cNvPr id="85" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23245,7 +23245,7 @@
         <xdr:cNvPr id="86" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000056000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23297,7 +23297,7 @@
         <xdr:cNvPr id="87" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000057000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23349,7 +23349,7 @@
         <xdr:cNvPr id="88" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000058000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23401,7 +23401,7 @@
         <xdr:cNvPr id="89" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000059000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23453,7 +23453,7 @@
         <xdr:cNvPr id="90" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23505,7 +23505,7 @@
         <xdr:cNvPr id="91" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23557,7 +23557,7 @@
         <xdr:cNvPr id="92" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23609,7 +23609,7 @@
         <xdr:cNvPr id="93" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23661,7 +23661,7 @@
         <xdr:cNvPr id="94" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23713,7 +23713,7 @@
         <xdr:cNvPr id="95" name="Picture 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23765,7 +23765,7 @@
         <xdr:cNvPr id="96" name="Picture 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000060000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23817,7 +23817,7 @@
         <xdr:cNvPr id="97" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23869,7 +23869,7 @@
         <xdr:cNvPr id="98" name="Picture 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000062000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23921,7 +23921,7 @@
         <xdr:cNvPr id="99" name="Picture 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23973,7 +23973,7 @@
         <xdr:cNvPr id="100" name="Picture 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24025,7 +24025,7 @@
         <xdr:cNvPr id="101" name="Picture 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24077,7 +24077,7 @@
         <xdr:cNvPr id="102" name="Picture 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000066000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24129,7 +24129,7 @@
         <xdr:cNvPr id="103" name="Picture 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000067000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24181,7 +24181,7 @@
         <xdr:cNvPr id="104" name="Picture 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24233,7 +24233,7 @@
         <xdr:cNvPr id="105" name="Picture 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000069000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24285,7 +24285,7 @@
         <xdr:cNvPr id="106" name="Picture 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24337,7 +24337,7 @@
         <xdr:cNvPr id="107" name="Picture 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24389,7 +24389,7 @@
         <xdr:cNvPr id="108" name="Picture 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24441,7 +24441,7 @@
         <xdr:cNvPr id="109" name="Picture 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24493,7 +24493,7 @@
         <xdr:cNvPr id="110" name="Picture 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24545,7 +24545,7 @@
         <xdr:cNvPr id="111" name="Picture 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24597,7 +24597,7 @@
         <xdr:cNvPr id="112" name="Picture 286">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000070000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24649,7 +24649,7 @@
         <xdr:cNvPr id="113" name="Picture 288">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000071000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24701,7 +24701,7 @@
         <xdr:cNvPr id="114" name="Picture 319">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000072000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24753,7 +24753,7 @@
         <xdr:cNvPr id="115" name="Picture 2399">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000073000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24805,7 +24805,7 @@
         <xdr:cNvPr id="116" name="Picture 2401">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000074000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24857,7 +24857,7 @@
         <xdr:cNvPr id="117" name="Picture 2403">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24909,7 +24909,7 @@
         <xdr:cNvPr id="118" name="Picture 2405">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000076000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24961,7 +24961,7 @@
         <xdr:cNvPr id="119" name="Picture 2409">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000077000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25013,7 +25013,7 @@
         <xdr:cNvPr id="120" name="Picture 2458">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000078000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25065,7 +25065,7 @@
         <xdr:cNvPr id="121" name="Picture 2461">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000079000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25117,7 +25117,7 @@
         <xdr:cNvPr id="122" name="Picture 2464">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25169,7 +25169,7 @@
         <xdr:cNvPr id="123" name="Picture 2467">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25221,7 +25221,7 @@
         <xdr:cNvPr id="124" name="Picture 2469">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00007C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25273,7 +25273,7 @@
         <xdr:cNvPr id="125" name="Picture 2521">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00007D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25325,7 +25325,7 @@
         <xdr:cNvPr id="126" name="Picture 2523">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25377,7 +25377,7 @@
         <xdr:cNvPr id="127" name="Picture 2525">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00007F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25429,7 +25429,7 @@
         <xdr:cNvPr id="128" name="Picture 2527">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000080000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25481,7 +25481,7 @@
         <xdr:cNvPr id="129" name="Picture 2529">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000081000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25533,7 +25533,7 @@
         <xdr:cNvPr id="130" name="Picture 2586">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000082000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25585,7 +25585,7 @@
         <xdr:cNvPr id="131" name="Picture 2588">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000083000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25637,7 +25637,7 @@
         <xdr:cNvPr id="132" name="Picture 2590">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000084000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25689,7 +25689,7 @@
         <xdr:cNvPr id="133" name="Picture 2592">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000085000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25741,7 +25741,7 @@
         <xdr:cNvPr id="134" name="Picture 2653">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000086000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000086000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25793,7 +25793,7 @@
         <xdr:cNvPr id="135" name="Picture 2655">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000087000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000087000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25845,7 +25845,7 @@
         <xdr:cNvPr id="136" name="Picture 2657">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000088000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25897,7 +25897,7 @@
         <xdr:cNvPr id="137" name="Picture 2659">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000089000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000089000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25954,7 +25954,7 @@
         <xdr:cNvPr id="2" name="Picture 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26006,7 +26006,7 @@
         <xdr:cNvPr id="3" name="Picture 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26058,7 +26058,7 @@
         <xdr:cNvPr id="4" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26110,7 +26110,7 @@
         <xdr:cNvPr id="5" name="Picture 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26162,7 +26162,7 @@
         <xdr:cNvPr id="6" name="Picture 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26214,7 +26214,7 @@
         <xdr:cNvPr id="7" name="Picture 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26266,7 +26266,7 @@
         <xdr:cNvPr id="8" name="Picture 660">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26318,7 +26318,7 @@
         <xdr:cNvPr id="9" name="Picture 684">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26370,7 +26370,7 @@
         <xdr:cNvPr id="10" name="Picture 3202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26422,7 +26422,7 @@
         <xdr:cNvPr id="11" name="Picture 5914">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26474,7 +26474,7 @@
         <xdr:cNvPr id="12" name="Picture 14074">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26526,7 +26526,7 @@
         <xdr:cNvPr id="13" name="Picture 14409">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26578,7 +26578,7 @@
         <xdr:cNvPr id="14" name="Picture 14411">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26630,7 +26630,7 @@
         <xdr:cNvPr id="15" name="Picture 16011">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26676,7 +26676,7 @@
         <xdr:cNvPr id="16" name="Picture 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26728,7 +26728,7 @@
         <xdr:cNvPr id="17" name="Picture 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26780,7 +26780,7 @@
         <xdr:cNvPr id="18" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26832,7 +26832,7 @@
         <xdr:cNvPr id="19" name="Picture 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26884,7 +26884,7 @@
         <xdr:cNvPr id="20" name="Picture 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26936,7 +26936,7 @@
         <xdr:cNvPr id="21" name="Picture 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26988,7 +26988,7 @@
         <xdr:cNvPr id="22" name="Picture 660">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27040,7 +27040,7 @@
         <xdr:cNvPr id="23" name="Picture 3202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27092,7 +27092,7 @@
         <xdr:cNvPr id="24" name="Picture 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27144,7 +27144,7 @@
         <xdr:cNvPr id="25" name="Picture 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27196,7 +27196,7 @@
         <xdr:cNvPr id="26" name="Picture 162">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27248,7 +27248,7 @@
         <xdr:cNvPr id="27" name="Picture 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27300,7 +27300,7 @@
         <xdr:cNvPr id="28" name="Picture 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27352,7 +27352,7 @@
         <xdr:cNvPr id="29" name="Picture 168">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27404,7 +27404,7 @@
         <xdr:cNvPr id="30" name="Picture 170">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27456,7 +27456,7 @@
         <xdr:cNvPr id="31" name="Picture 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27508,7 +27508,7 @@
         <xdr:cNvPr id="32" name="Picture 176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27560,7 +27560,7 @@
         <xdr:cNvPr id="33" name="Picture 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27612,7 +27612,7 @@
         <xdr:cNvPr id="34" name="Picture 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27664,7 +27664,7 @@
         <xdr:cNvPr id="35" name="Picture 184">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27716,7 +27716,7 @@
         <xdr:cNvPr id="36" name="Picture 186">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27768,7 +27768,7 @@
         <xdr:cNvPr id="37" name="Picture 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27820,7 +27820,7 @@
         <xdr:cNvPr id="38" name="Picture 194">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27872,7 +27872,7 @@
         <xdr:cNvPr id="39" name="Picture 196">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27924,7 +27924,7 @@
         <xdr:cNvPr id="40" name="Picture 198">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27976,7 +27976,7 @@
         <xdr:cNvPr id="41" name="Picture 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28028,7 +28028,7 @@
         <xdr:cNvPr id="42" name="Picture 276">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28080,7 +28080,7 @@
         <xdr:cNvPr id="43" name="Picture 682">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28132,7 +28132,7 @@
         <xdr:cNvPr id="44" name="Picture 1731">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28184,7 +28184,7 @@
         <xdr:cNvPr id="45" name="Picture 1733">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28236,7 +28236,7 @@
         <xdr:cNvPr id="46" name="Picture 1735">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28288,7 +28288,7 @@
         <xdr:cNvPr id="47" name="Picture 1737">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28340,7 +28340,7 @@
         <xdr:cNvPr id="48" name="Picture 1739">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28392,7 +28392,7 @@
         <xdr:cNvPr id="49" name="Picture 1745">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28444,7 +28444,7 @@
         <xdr:cNvPr id="50" name="Picture 1747">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28496,7 +28496,7 @@
         <xdr:cNvPr id="51" name="Picture 1749">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28548,7 +28548,7 @@
         <xdr:cNvPr id="52" name="Picture 8904">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28600,7 +28600,7 @@
         <xdr:cNvPr id="53" name="Picture 8906">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28652,7 +28652,7 @@
         <xdr:cNvPr id="54" name="Picture 8912">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28704,7 +28704,7 @@
         <xdr:cNvPr id="55" name="Picture 8916">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28756,7 +28756,7 @@
         <xdr:cNvPr id="56" name="Picture 9134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28808,7 +28808,7 @@
         <xdr:cNvPr id="57" name="Picture 9207">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28860,7 +28860,7 @@
         <xdr:cNvPr id="58" name="Picture 9209">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28912,7 +28912,7 @@
         <xdr:cNvPr id="59" name="Picture 9288">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28964,7 +28964,7 @@
         <xdr:cNvPr id="60" name="Picture 9290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29016,7 +29016,7 @@
         <xdr:cNvPr id="61" name="Picture 13122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29068,7 +29068,7 @@
         <xdr:cNvPr id="62" name="Picture 15648">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29114,7 +29114,7 @@
         <xdr:cNvPr id="63" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29166,7 +29166,7 @@
         <xdr:cNvPr id="64" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29218,7 +29218,7 @@
         <xdr:cNvPr id="65" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29270,7 +29270,7 @@
         <xdr:cNvPr id="66" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29322,7 +29322,7 @@
         <xdr:cNvPr id="67" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29374,7 +29374,7 @@
         <xdr:cNvPr id="68" name="Picture 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29426,7 +29426,7 @@
         <xdr:cNvPr id="69" name="Picture 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29478,7 +29478,7 @@
         <xdr:cNvPr id="70" name="Picture 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000046000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29530,7 +29530,7 @@
         <xdr:cNvPr id="71" name="Picture 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29582,7 +29582,7 @@
         <xdr:cNvPr id="72" name="Picture 688">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29634,7 +29634,7 @@
         <xdr:cNvPr id="76" name="Picture 12681">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29686,7 +29686,7 @@
         <xdr:cNvPr id="78" name="Picture 13950">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29738,7 +29738,7 @@
         <xdr:cNvPr id="80" name="Picture 13962">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000050000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29790,7 +29790,7 @@
         <xdr:cNvPr id="84" name="Picture 16008">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29836,7 +29836,7 @@
         <xdr:cNvPr id="107" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29888,7 +29888,7 @@
         <xdr:cNvPr id="108" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29940,7 +29940,7 @@
         <xdr:cNvPr id="109" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29992,7 +29992,7 @@
         <xdr:cNvPr id="110" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30044,7 +30044,7 @@
         <xdr:cNvPr id="111" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30096,7 +30096,7 @@
         <xdr:cNvPr id="112" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000070000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30148,7 +30148,7 @@
         <xdr:cNvPr id="113" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000071000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30200,7 +30200,7 @@
         <xdr:cNvPr id="114" name="Picture 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000072000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30252,7 +30252,7 @@
         <xdr:cNvPr id="115" name="Picture 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000073000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30304,7 +30304,7 @@
         <xdr:cNvPr id="116" name="Picture 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000074000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30356,7 +30356,7 @@
         <xdr:cNvPr id="117" name="Picture 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30408,7 +30408,7 @@
         <xdr:cNvPr id="118" name="Picture 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000076000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30460,7 +30460,7 @@
         <xdr:cNvPr id="119" name="Picture 179">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000077000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30512,7 +30512,7 @@
         <xdr:cNvPr id="120" name="Picture 181">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000078000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30564,7 +30564,7 @@
         <xdr:cNvPr id="121" name="Picture 183">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000079000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30616,7 +30616,7 @@
         <xdr:cNvPr id="122" name="Picture 185">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30668,7 +30668,7 @@
         <xdr:cNvPr id="123" name="Picture 187">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30720,7 +30720,7 @@
         <xdr:cNvPr id="124" name="Picture 189">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00007C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30772,7 +30772,7 @@
         <xdr:cNvPr id="125" name="Picture 191">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00007D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30824,7 +30824,7 @@
         <xdr:cNvPr id="126" name="Picture 193">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30876,7 +30876,7 @@
         <xdr:cNvPr id="127" name="Picture 195">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00007F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30928,7 +30928,7 @@
         <xdr:cNvPr id="128" name="Picture 197">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000080000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30980,7 +30980,7 @@
         <xdr:cNvPr id="6153" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000009180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31379,15 +31379,15 @@
       </c>
       <c r="C6" s="39">
         <f>TUI!G173</f>
-        <v>0</v>
+        <v>2350000</v>
       </c>
       <c r="D6" s="39">
         <f>TUI!H173</f>
-        <v>0</v>
+        <v>1450000</v>
       </c>
       <c r="E6" s="39">
         <f>TUI!I173</f>
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="90"/>
@@ -31497,15 +31497,15 @@
       <c r="B12" s="34"/>
       <c r="C12" s="61">
         <f>SUM(C6:C11)</f>
-        <v>0</v>
+        <v>2350000</v>
       </c>
       <c r="D12" s="61">
         <f>SUM(D6:D11)</f>
-        <v>0</v>
+        <v>1450000</v>
       </c>
       <c r="E12" s="61">
         <f>SUM(E6:E11)</f>
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="F12" s="59">
         <f>C12-D12-E12</f>
@@ -31640,7 +31640,7 @@
       <c r="E24" s="83"/>
       <c r="F24" s="84">
         <f>C12</f>
-        <v>0</v>
+        <v>2350000</v>
       </c>
       <c r="G24" s="90"/>
     </row>
@@ -31654,7 +31654,7 @@
       <c r="E25" s="79"/>
       <c r="F25" s="79">
         <f>D12</f>
-        <v>0</v>
+        <v>1450000</v>
       </c>
       <c r="G25" s="90"/>
       <c r="H25" s="88"/>
@@ -31684,7 +31684,7 @@
       <c r="E27" s="77"/>
       <c r="F27" s="81">
         <f>F24-F25-F26</f>
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="G27" s="90"/>
       <c r="H27" s="88"/>
@@ -31754,7 +31754,7 @@
       <c r="E33" s="67"/>
       <c r="F33" s="68">
         <f>F27+F31</f>
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="G33" s="90"/>
     </row>
@@ -31818,10 +31818,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A4:N173"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31838,64 +31838,72 @@
     <col min="14" max="14" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="114" t="s">
+      <c r="G4" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="114" t="s">
+      <c r="I4" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="114" t="s">
+      <c r="J4" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="114" t="s">
+      <c r="L4" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="114" t="s">
+      <c r="M4" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="119" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="116" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -31904,7 +31912,9 @@
       <c r="C6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="9">
+        <v>3</v>
+      </c>
       <c r="E6" s="8">
         <v>100000</v>
       </c>
@@ -31912,32 +31922,36 @@
         <v>230000</v>
       </c>
       <c r="G6" s="90">
-        <f>F6*D6</f>
-        <v>0</v>
+        <f t="shared" ref="G6:G71" si="0">F6*D6</f>
+        <v>690000</v>
       </c>
       <c r="H6" s="12">
-        <f>E6*D6</f>
-        <v>0</v>
+        <f t="shared" ref="H6:H171" si="1">E6*D6</f>
+        <v>300000</v>
       </c>
       <c r="I6" s="90">
-        <f>G6-H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="90"/>
+        <f t="shared" ref="I6:I111" si="2">G6-H6</f>
+        <v>390000</v>
+      </c>
+      <c r="J6" s="90">
+        <v>0</v>
+      </c>
       <c r="L6" s="90"/>
-      <c r="M6" s="90">
-        <f>L6-D6</f>
-        <v>0</v>
+      <c r="M6" s="90" t="e">
+        <f>L6-#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="121"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="91"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
       <c r="E7" s="10">
         <v>189000</v>
       </c>
@@ -31945,34 +31959,38 @@
         <v>280000</v>
       </c>
       <c r="G7" s="90">
-        <f t="shared" ref="G7:G71" si="0">F7*D7</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>280000</v>
       </c>
       <c r="H7" s="12">
-        <f t="shared" ref="H7:H171" si="1">E7*D7</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>189000</v>
       </c>
       <c r="I7" s="90">
-        <f t="shared" ref="I7:I111" si="2">G7-H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="90"/>
+        <f t="shared" si="2"/>
+        <v>91000</v>
+      </c>
+      <c r="J7" s="90">
+        <v>0</v>
+      </c>
       <c r="L7" s="90"/>
       <c r="M7" s="90">
         <f t="shared" ref="M7:M145" si="3">L7-D7</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N7" s="90"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
       <c r="E8" s="10">
         <v>230000</v>
       </c>
@@ -31981,33 +31999,37 @@
       </c>
       <c r="G8" s="90">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>660000</v>
       </c>
       <c r="H8" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>460000</v>
       </c>
       <c r="I8" s="90">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="90"/>
+        <v>200000</v>
+      </c>
+      <c r="J8" s="90">
+        <v>0</v>
+      </c>
       <c r="L8" s="90"/>
       <c r="M8" s="90">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N8" s="90"/>
     </row>
     <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="121"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
       <c r="E9" s="10">
         <v>169000</v>
       </c>
@@ -32035,14 +32057,16 @@
       <c r="N9" s="90"/>
     </row>
     <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
       <c r="E10" s="10">
         <v>130000</v>
       </c>
@@ -32070,12 +32094,14 @@
       <c r="N10" s="90"/>
     </row>
     <row r="11" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="91"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
       <c r="E11" s="10">
         <v>169000</v>
       </c>
@@ -32103,12 +32129,14 @@
       <c r="N11" s="90"/>
     </row>
     <row r="12" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="91"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
       <c r="E12" s="10">
         <v>241000</v>
       </c>
@@ -32136,14 +32164,16 @@
       <c r="N12" s="90"/>
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="121"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
       <c r="E13" s="10">
         <v>167000</v>
       </c>
@@ -32151,34 +32181,36 @@
         <v>240000</v>
       </c>
       <c r="G13" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F13*D6</f>
+        <v>720000</v>
       </c>
       <c r="H13" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>E13*D6</f>
+        <v>501000</v>
       </c>
       <c r="I13" s="90">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>219000</v>
       </c>
       <c r="J13" s="90"/>
       <c r="L13" s="90"/>
       <c r="M13" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>L13-D6</f>
+        <v>-3</v>
       </c>
       <c r="N13" s="90"/>
     </row>
     <row r="14" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="121"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
       <c r="E14" s="10">
         <v>92000</v>
       </c>
@@ -32206,14 +32238,16 @@
       <c r="N14" s="90"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="121"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
       <c r="E15" s="10">
         <v>206000</v>
       </c>
@@ -32241,14 +32275,16 @@
       <c r="N15" s="90"/>
     </row>
     <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="121"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
       <c r="E16" s="10">
         <v>86000</v>
       </c>
@@ -32276,12 +32312,14 @@
       <c r="N16" s="90"/>
     </row>
     <row r="17" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="121"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="91"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
       <c r="E17" s="10">
         <v>174000</v>
       </c>
@@ -32309,14 +32347,16 @@
       <c r="N17" s="90"/>
     </row>
     <row r="18" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="121"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
       <c r="E18" s="10">
         <v>73000</v>
       </c>
@@ -32344,14 +32384,16 @@
       <c r="N18" s="90"/>
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="121"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
       <c r="E19" s="10">
         <v>60000</v>
       </c>
@@ -32379,14 +32421,16 @@
       <c r="N19" s="90"/>
     </row>
     <row r="20" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="121"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
       <c r="E20" s="10">
         <v>210000</v>
       </c>
@@ -32414,14 +32458,16 @@
       <c r="N20" s="90"/>
     </row>
     <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="121"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
       <c r="E21" s="10">
         <v>170000</v>
       </c>
@@ -32449,14 +32495,16 @@
       <c r="N21" s="90"/>
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="121"/>
+      <c r="A22" s="117"/>
       <c r="B22" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
       <c r="E22" s="10">
         <v>50000</v>
       </c>
@@ -32484,14 +32532,16 @@
       <c r="N22" s="90"/>
     </row>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="121"/>
+      <c r="A23" s="117"/>
       <c r="B23" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C23" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
       <c r="E23" s="10">
         <v>52000</v>
       </c>
@@ -32519,14 +32569,16 @@
       <c r="N23" s="90"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="121"/>
+      <c r="A24" s="117"/>
       <c r="B24" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
       <c r="E24" s="10">
         <v>47000</v>
       </c>
@@ -32554,14 +32606,16 @@
       <c r="N24" s="90"/>
     </row>
     <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="121"/>
+      <c r="A25" s="117"/>
       <c r="B25" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C25" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
       <c r="E25" s="10">
         <v>50000</v>
       </c>
@@ -32589,12 +32643,14 @@
       <c r="N25" s="90"/>
     </row>
     <row r="26" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="121"/>
+      <c r="A26" s="117"/>
       <c r="B26" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="91"/>
-      <c r="D26" s="9"/>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
       <c r="E26" s="10">
         <v>206000</v>
       </c>
@@ -32622,12 +32678,14 @@
       <c r="N26" s="90"/>
     </row>
     <row r="27" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="121"/>
+      <c r="A27" s="117"/>
       <c r="B27" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="91"/>
-      <c r="D27" s="9"/>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
       <c r="E27" s="10">
         <v>220000</v>
       </c>
@@ -32655,12 +32713,14 @@
       <c r="N27" s="90"/>
     </row>
     <row r="28" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="121"/>
+      <c r="A28" s="117"/>
       <c r="B28" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="91"/>
-      <c r="D28" s="9"/>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
       <c r="E28" s="10">
         <v>214000</v>
       </c>
@@ -32688,14 +32748,16 @@
       <c r="N28" s="90"/>
     </row>
     <row r="29" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="121"/>
+      <c r="A29" s="117"/>
       <c r="B29" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="9"/>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
       <c r="E29" s="11">
         <v>150000</v>
       </c>
@@ -32723,14 +32785,16 @@
       <c r="N29" s="90"/>
     </row>
     <row r="30" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="121"/>
+      <c r="A30" s="117"/>
       <c r="B30" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C30" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
       <c r="E30" s="10">
         <v>234000</v>
       </c>
@@ -32758,14 +32822,16 @@
       <c r="N30" s="90"/>
     </row>
     <row r="31" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="121"/>
+      <c r="A31" s="117"/>
       <c r="B31" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C31" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="9"/>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
       <c r="E31" s="10">
         <v>218000</v>
       </c>
@@ -32793,12 +32859,14 @@
       <c r="N31" s="90"/>
     </row>
     <row r="32" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="121"/>
+      <c r="A32" s="117"/>
       <c r="B32" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C32" s="91"/>
-      <c r="D32" s="9"/>
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
       <c r="E32" s="10">
         <v>199000</v>
       </c>
@@ -32826,12 +32894,14 @@
       <c r="N32" s="90"/>
     </row>
     <row r="33" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="121"/>
+      <c r="A33" s="117"/>
       <c r="B33" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C33" s="91"/>
-      <c r="D33" s="9"/>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
       <c r="E33" s="10">
         <v>243000</v>
       </c>
@@ -32859,12 +32929,14 @@
       <c r="N33" s="90"/>
     </row>
     <row r="34" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="121"/>
+      <c r="A34" s="117"/>
       <c r="B34" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C34" s="91"/>
-      <c r="D34" s="9"/>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
       <c r="E34" s="10">
         <v>226000</v>
       </c>
@@ -32892,12 +32964,14 @@
       <c r="N34" s="90"/>
     </row>
     <row r="35" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="121"/>
+      <c r="A35" s="117"/>
       <c r="B35" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C35" s="91"/>
-      <c r="D35" s="9"/>
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
       <c r="E35" s="10">
         <v>186000</v>
       </c>
@@ -32925,12 +32999,14 @@
       <c r="N35" s="90"/>
     </row>
     <row r="36" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="121"/>
+      <c r="A36" s="117"/>
       <c r="B36" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C36" s="91"/>
-      <c r="D36" s="9"/>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
       <c r="E36" s="10">
         <v>186000</v>
       </c>
@@ -32958,12 +33034,14 @@
       <c r="N36" s="90"/>
     </row>
     <row r="37" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="121"/>
+      <c r="A37" s="117"/>
       <c r="B37" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C37" s="91"/>
-      <c r="D37" s="9"/>
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
       <c r="E37" s="10">
         <v>217000</v>
       </c>
@@ -32991,12 +33069,14 @@
       <c r="N37" s="90"/>
     </row>
     <row r="38" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="121"/>
+      <c r="A38" s="117"/>
       <c r="B38" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C38" s="91"/>
-      <c r="D38" s="9"/>
+      <c r="D38" s="9">
+        <v>0</v>
+      </c>
       <c r="E38" s="10">
         <v>220000</v>
       </c>
@@ -33024,14 +33104,16 @@
       <c r="N38" s="90"/>
     </row>
     <row r="39" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="121"/>
+      <c r="A39" s="117"/>
       <c r="B39" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C39" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="9"/>
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
       <c r="E39" s="10">
         <v>84000</v>
       </c>
@@ -33059,12 +33141,14 @@
       <c r="N39" s="90"/>
     </row>
     <row r="40" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="121"/>
+      <c r="A40" s="117"/>
       <c r="B40" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C40" s="91"/>
-      <c r="D40" s="9"/>
+      <c r="D40" s="9">
+        <v>0</v>
+      </c>
       <c r="E40" s="10">
         <v>81000</v>
       </c>
@@ -33092,12 +33176,14 @@
       <c r="N40" s="90"/>
     </row>
     <row r="41" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="121"/>
+      <c r="A41" s="117"/>
       <c r="B41" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="91"/>
-      <c r="D41" s="9"/>
+      <c r="D41" s="9">
+        <v>0</v>
+      </c>
       <c r="E41" s="10">
         <v>51000</v>
       </c>
@@ -33125,12 +33211,14 @@
       <c r="N41" s="90"/>
     </row>
     <row r="42" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="121"/>
+      <c r="A42" s="117"/>
       <c r="B42" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C42" s="91"/>
-      <c r="D42" s="9"/>
+      <c r="D42" s="9">
+        <v>0</v>
+      </c>
       <c r="E42" s="10">
         <v>173000</v>
       </c>
@@ -33158,12 +33246,14 @@
       <c r="N42" s="90"/>
     </row>
     <row r="43" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="121"/>
+      <c r="A43" s="117"/>
       <c r="B43" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C43" s="91"/>
-      <c r="D43" s="9"/>
+      <c r="D43" s="9">
+        <v>0</v>
+      </c>
       <c r="E43" s="10">
         <v>73000</v>
       </c>
@@ -33191,12 +33281,14 @@
       <c r="N43" s="90"/>
     </row>
     <row r="44" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="121"/>
+      <c r="A44" s="117"/>
       <c r="B44" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="91"/>
-      <c r="D44" s="9"/>
+      <c r="D44" s="9">
+        <v>0</v>
+      </c>
       <c r="E44" s="10">
         <v>140500</v>
       </c>
@@ -33224,12 +33316,14 @@
       <c r="N44" s="90"/>
     </row>
     <row r="45" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="121"/>
+      <c r="A45" s="117"/>
       <c r="B45" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C45" s="91"/>
-      <c r="D45" s="9"/>
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
       <c r="E45" s="10">
         <v>169000</v>
       </c>
@@ -33257,12 +33351,14 @@
       <c r="N45" s="90"/>
     </row>
     <row r="46" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="121"/>
+      <c r="A46" s="117"/>
       <c r="B46" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C46" s="91"/>
-      <c r="D46" s="9"/>
+      <c r="D46" s="9">
+        <v>0</v>
+      </c>
       <c r="E46" s="10">
         <v>230000</v>
       </c>
@@ -33290,12 +33386,14 @@
       <c r="N46" s="90"/>
     </row>
     <row r="47" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="121"/>
+      <c r="A47" s="117"/>
       <c r="B47" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C47" s="91"/>
-      <c r="D47" s="9"/>
+      <c r="D47" s="9">
+        <v>0</v>
+      </c>
       <c r="E47" s="10">
         <v>230000</v>
       </c>
@@ -33323,12 +33421,14 @@
       <c r="N47" s="90"/>
     </row>
     <row r="48" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="121"/>
+      <c r="A48" s="117"/>
       <c r="B48" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C48" s="91"/>
-      <c r="D48" s="9"/>
+      <c r="D48" s="9">
+        <v>0</v>
+      </c>
       <c r="E48" s="10">
         <v>170000</v>
       </c>
@@ -33356,12 +33456,14 @@
       <c r="N48" s="90"/>
     </row>
     <row r="49" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="121"/>
+      <c r="A49" s="117"/>
       <c r="B49" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C49" s="91"/>
-      <c r="D49" s="9"/>
+      <c r="D49" s="9">
+        <v>0</v>
+      </c>
       <c r="E49" s="10">
         <v>129500</v>
       </c>
@@ -33389,12 +33491,14 @@
       <c r="N49" s="90"/>
     </row>
     <row r="50" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="121"/>
+      <c r="A50" s="117"/>
       <c r="B50" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C50" s="91"/>
-      <c r="D50" s="9"/>
+      <c r="D50" s="9">
+        <v>0</v>
+      </c>
       <c r="E50" s="10">
         <v>215000</v>
       </c>
@@ -33422,12 +33526,14 @@
       <c r="N50" s="90"/>
     </row>
     <row r="51" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="121"/>
+      <c r="A51" s="117"/>
       <c r="B51" s="5" t="s">
         <v>109</v>
       </c>
       <c r="C51" s="91"/>
-      <c r="D51" s="9"/>
+      <c r="D51" s="9">
+        <v>0</v>
+      </c>
       <c r="E51" s="10">
         <v>215000</v>
       </c>
@@ -33455,12 +33561,14 @@
       <c r="N51" s="90"/>
     </row>
     <row r="52" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="121"/>
+      <c r="A52" s="117"/>
       <c r="B52" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C52" s="91"/>
-      <c r="D52" s="9"/>
+      <c r="D52" s="9">
+        <v>0</v>
+      </c>
       <c r="E52" s="10">
         <v>208000</v>
       </c>
@@ -33488,12 +33596,14 @@
       <c r="N52" s="90"/>
     </row>
     <row r="53" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="121"/>
+      <c r="A53" s="117"/>
       <c r="B53" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C53" s="91"/>
-      <c r="D53" s="9"/>
+      <c r="D53" s="9">
+        <v>0</v>
+      </c>
       <c r="E53" s="10">
         <v>170000</v>
       </c>
@@ -33521,12 +33631,14 @@
       <c r="N53" s="90"/>
     </row>
     <row r="54" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="121"/>
+      <c r="A54" s="117"/>
       <c r="B54" s="5" t="s">
         <v>112</v>
       </c>
       <c r="C54" s="91"/>
-      <c r="D54" s="9"/>
+      <c r="D54" s="9">
+        <v>0</v>
+      </c>
       <c r="E54" s="10">
         <v>150000</v>
       </c>
@@ -33554,12 +33666,14 @@
       <c r="N54" s="90"/>
     </row>
     <row r="55" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="121"/>
+      <c r="A55" s="117"/>
       <c r="B55" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C55" s="91"/>
-      <c r="D55" s="9"/>
+      <c r="D55" s="9">
+        <v>0</v>
+      </c>
       <c r="E55" s="10">
         <v>218500</v>
       </c>
@@ -33587,12 +33701,14 @@
       <c r="N55" s="90"/>
     </row>
     <row r="56" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="121"/>
+      <c r="A56" s="117"/>
       <c r="B56" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C56" s="91"/>
-      <c r="D56" s="9"/>
+      <c r="D56" s="9">
+        <v>0</v>
+      </c>
       <c r="E56" s="10">
         <v>270000</v>
       </c>
@@ -33620,14 +33736,16 @@
       <c r="N56" s="90"/>
     </row>
     <row r="57" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="121"/>
+      <c r="A57" s="117"/>
       <c r="B57" s="5" t="s">
         <v>115</v>
       </c>
       <c r="C57" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="9"/>
+      <c r="D57" s="9">
+        <v>0</v>
+      </c>
       <c r="E57" s="10">
         <v>150000</v>
       </c>
@@ -33655,12 +33773,14 @@
       <c r="N57" s="90"/>
     </row>
     <row r="58" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="121"/>
+      <c r="A58" s="117"/>
       <c r="B58" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C58" s="91"/>
-      <c r="D58" s="9"/>
+      <c r="D58" s="9">
+        <v>0</v>
+      </c>
       <c r="E58" s="10">
         <v>171000</v>
       </c>
@@ -33688,12 +33808,14 @@
       <c r="N58" s="90"/>
     </row>
     <row r="59" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="121"/>
+      <c r="A59" s="117"/>
       <c r="B59" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C59" s="91"/>
-      <c r="D59" s="9"/>
+      <c r="D59" s="9">
+        <v>0</v>
+      </c>
       <c r="E59" s="10">
         <v>190000</v>
       </c>
@@ -33718,12 +33840,14 @@
       <c r="N59" s="90"/>
     </row>
     <row r="60" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="121"/>
+      <c r="A60" s="117"/>
       <c r="B60" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C60" s="91"/>
-      <c r="D60" s="9"/>
+      <c r="D60" s="9">
+        <v>0</v>
+      </c>
       <c r="E60" s="10">
         <v>199000</v>
       </c>
@@ -33748,12 +33872,14 @@
       <c r="N60" s="90"/>
     </row>
     <row r="61" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="121"/>
+      <c r="A61" s="117"/>
       <c r="B61" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C61" s="91"/>
-      <c r="D61" s="9"/>
+      <c r="D61" s="9">
+        <v>0</v>
+      </c>
       <c r="E61" s="10">
         <v>174000</v>
       </c>
@@ -33778,12 +33904,14 @@
       <c r="N61" s="90"/>
     </row>
     <row r="62" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="121"/>
+      <c r="A62" s="117"/>
       <c r="B62" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C62" s="91"/>
-      <c r="D62" s="9"/>
+      <c r="D62" s="9">
+        <v>0</v>
+      </c>
       <c r="E62" s="10">
         <v>200000</v>
       </c>
@@ -33808,12 +33936,14 @@
       <c r="N62" s="90"/>
     </row>
     <row r="63" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="121"/>
+      <c r="A63" s="117"/>
       <c r="B63" s="5" t="s">
         <v>122</v>
       </c>
       <c r="C63" s="91"/>
-      <c r="D63" s="9"/>
+      <c r="D63" s="9">
+        <v>0</v>
+      </c>
       <c r="E63" s="10">
         <v>215000</v>
       </c>
@@ -33838,12 +33968,14 @@
       <c r="N63" s="90"/>
     </row>
     <row r="64" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="121"/>
+      <c r="A64" s="117"/>
       <c r="B64" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C64" s="91"/>
-      <c r="D64" s="9"/>
+      <c r="D64" s="9">
+        <v>0</v>
+      </c>
       <c r="E64" s="10">
         <v>66000</v>
       </c>
@@ -33868,12 +34000,14 @@
       <c r="N64" s="90"/>
     </row>
     <row r="65" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="121"/>
+      <c r="A65" s="117"/>
       <c r="B65" s="5" t="s">
         <v>124</v>
       </c>
       <c r="C65" s="91"/>
-      <c r="D65" s="9"/>
+      <c r="D65" s="9">
+        <v>0</v>
+      </c>
       <c r="E65" s="10">
         <v>42000</v>
       </c>
@@ -33898,12 +34032,14 @@
       <c r="N65" s="90"/>
     </row>
     <row r="66" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="121"/>
+      <c r="A66" s="117"/>
       <c r="B66" s="5" t="s">
         <v>125</v>
       </c>
       <c r="C66" s="91"/>
-      <c r="D66" s="9"/>
+      <c r="D66" s="9">
+        <v>0</v>
+      </c>
       <c r="E66" s="10">
         <v>40000</v>
       </c>
@@ -33928,12 +34064,14 @@
       <c r="N66" s="90"/>
     </row>
     <row r="67" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="121"/>
+      <c r="A67" s="117"/>
       <c r="B67" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C67" s="91"/>
-      <c r="D67" s="9"/>
+      <c r="D67" s="9">
+        <v>0</v>
+      </c>
       <c r="E67" s="10">
         <v>79000</v>
       </c>
@@ -33958,12 +34096,14 @@
       <c r="N67" s="90"/>
     </row>
     <row r="68" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="121"/>
+      <c r="A68" s="117"/>
       <c r="B68" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C68" s="91"/>
-      <c r="D68" s="9"/>
+      <c r="D68" s="9">
+        <v>0</v>
+      </c>
       <c r="E68" s="10">
         <v>79000</v>
       </c>
@@ -33988,14 +34128,16 @@
       <c r="N68" s="90"/>
     </row>
     <row r="69" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="121"/>
+      <c r="A69" s="117"/>
       <c r="B69" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C69" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="D69" s="9"/>
+      <c r="D69" s="9">
+        <v>0</v>
+      </c>
       <c r="E69" s="10">
         <v>380000</v>
       </c>
@@ -34020,12 +34162,14 @@
       <c r="N69" s="90"/>
     </row>
     <row r="70" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="121"/>
+      <c r="A70" s="117"/>
       <c r="B70" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C70" s="91"/>
-      <c r="D70" s="9"/>
+      <c r="D70" s="9">
+        <v>0</v>
+      </c>
       <c r="E70" s="10">
         <v>54500</v>
       </c>
@@ -34050,12 +34194,14 @@
       <c r="N70" s="90"/>
     </row>
     <row r="71" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="121"/>
+      <c r="A71" s="117"/>
       <c r="B71" s="5" t="s">
         <v>131</v>
       </c>
       <c r="C71" s="91"/>
-      <c r="D71" s="9"/>
+      <c r="D71" s="9">
+        <v>0</v>
+      </c>
       <c r="E71" s="10">
         <v>242500</v>
       </c>
@@ -34080,12 +34226,14 @@
       <c r="N71" s="90"/>
     </row>
     <row r="72" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="121"/>
+      <c r="A72" s="117"/>
       <c r="B72" s="5" t="s">
         <v>132</v>
       </c>
       <c r="C72" s="91"/>
-      <c r="D72" s="9"/>
+      <c r="D72" s="9">
+        <v>0</v>
+      </c>
       <c r="E72" s="10">
         <v>208000</v>
       </c>
@@ -34110,14 +34258,16 @@
       <c r="N72" s="90"/>
     </row>
     <row r="73" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="121"/>
+      <c r="A73" s="117"/>
       <c r="B73" s="5" t="s">
         <v>133</v>
       </c>
       <c r="C73" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="D73" s="9"/>
+      <c r="D73" s="9">
+        <v>0</v>
+      </c>
       <c r="E73" s="10">
         <v>243000</v>
       </c>
@@ -34142,12 +34292,14 @@
       <c r="N73" s="90"/>
     </row>
     <row r="74" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="121"/>
+      <c r="A74" s="117"/>
       <c r="B74" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C74" s="91"/>
-      <c r="D74" s="9"/>
+      <c r="D74" s="9">
+        <v>0</v>
+      </c>
       <c r="E74" s="10">
         <v>230000</v>
       </c>
@@ -34172,12 +34324,14 @@
       <c r="N74" s="90"/>
     </row>
     <row r="75" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="121"/>
+      <c r="A75" s="117"/>
       <c r="B75" s="5" t="s">
         <v>136</v>
       </c>
       <c r="C75" s="91"/>
-      <c r="D75" s="9"/>
+      <c r="D75" s="9">
+        <v>0</v>
+      </c>
       <c r="E75" s="10">
         <v>211000</v>
       </c>
@@ -34202,12 +34356,14 @@
       <c r="N75" s="90"/>
     </row>
     <row r="76" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="121"/>
+      <c r="A76" s="117"/>
       <c r="B76" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C76" s="91"/>
-      <c r="D76" s="9"/>
+      <c r="D76" s="9">
+        <v>0</v>
+      </c>
       <c r="E76" s="10">
         <v>68000</v>
       </c>
@@ -34232,12 +34388,14 @@
       <c r="N76" s="90"/>
     </row>
     <row r="77" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="121"/>
+      <c r="A77" s="117"/>
       <c r="B77" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C77" s="91"/>
-      <c r="D77" s="9"/>
+      <c r="D77" s="9">
+        <v>0</v>
+      </c>
       <c r="E77" s="10">
         <v>68000</v>
       </c>
@@ -34262,12 +34420,14 @@
       <c r="N77" s="90"/>
     </row>
     <row r="78" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="121"/>
+      <c r="A78" s="117"/>
       <c r="B78" s="5" t="s">
         <v>139</v>
       </c>
       <c r="C78" s="91"/>
-      <c r="D78" s="9"/>
+      <c r="D78" s="9">
+        <v>0</v>
+      </c>
       <c r="E78" s="10">
         <v>72000</v>
       </c>
@@ -34292,14 +34452,16 @@
       <c r="N78" s="90"/>
     </row>
     <row r="79" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="121"/>
+      <c r="A79" s="117"/>
       <c r="B79" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C79" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="D79" s="9"/>
+      <c r="D79" s="9">
+        <v>0</v>
+      </c>
       <c r="E79" s="10">
         <v>159000</v>
       </c>
@@ -34322,12 +34484,14 @@
       <c r="N79" s="90"/>
     </row>
     <row r="80" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="121"/>
+      <c r="A80" s="117"/>
       <c r="B80" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C80" s="91"/>
-      <c r="D80" s="9"/>
+      <c r="D80" s="9">
+        <v>0</v>
+      </c>
       <c r="E80" s="10">
         <v>207000</v>
       </c>
@@ -34352,12 +34516,14 @@
       <c r="N80" s="90"/>
     </row>
     <row r="81" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="121"/>
+      <c r="A81" s="117"/>
       <c r="B81" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C81" s="91"/>
-      <c r="D81" s="9"/>
+      <c r="D81" s="9">
+        <v>0</v>
+      </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="90">
@@ -34381,7 +34547,7 @@
       <c r="N81" s="90"/>
     </row>
     <row r="82" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="121"/>
+      <c r="A82" s="117"/>
       <c r="B82" s="26"/>
       <c r="C82" s="91"/>
       <c r="D82" s="9"/>
@@ -34396,7 +34562,7 @@
       <c r="N82" s="90"/>
     </row>
     <row r="83" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="121"/>
+      <c r="A83" s="117"/>
       <c r="B83" s="26"/>
       <c r="C83" s="91"/>
       <c r="D83" s="9"/>
@@ -34411,7 +34577,7 @@
       <c r="N83" s="90"/>
     </row>
     <row r="84" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="122"/>
+      <c r="A84" s="118"/>
       <c r="B84" s="26"/>
       <c r="C84" s="91"/>
       <c r="D84" s="9"/>
@@ -34454,7 +34620,7 @@
       <c r="N85" s="27"/>
     </row>
     <row r="86" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="120" t="s">
+      <c r="A86" s="116" t="s">
         <v>144</v>
       </c>
       <c r="B86" s="13" t="s">
@@ -34491,7 +34657,7 @@
       <c r="N86" s="90"/>
     </row>
     <row r="87" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="121"/>
+      <c r="A87" s="117"/>
       <c r="B87" s="13" t="s">
         <v>147</v>
       </c>
@@ -34526,7 +34692,7 @@
       <c r="N87" s="90"/>
     </row>
     <row r="88" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="121"/>
+      <c r="A88" s="117"/>
       <c r="B88" s="13" t="s">
         <v>149</v>
       </c>
@@ -34559,7 +34725,7 @@
       <c r="N88" s="90"/>
     </row>
     <row r="89" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="121"/>
+      <c r="A89" s="117"/>
       <c r="B89" s="13" t="s">
         <v>150</v>
       </c>
@@ -34594,7 +34760,7 @@
       <c r="N89" s="90"/>
     </row>
     <row r="90" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="121"/>
+      <c r="A90" s="117"/>
       <c r="B90" s="13" t="s">
         <v>152</v>
       </c>
@@ -34629,7 +34795,7 @@
       <c r="N90" s="90"/>
     </row>
     <row r="91" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="121"/>
+      <c r="A91" s="117"/>
       <c r="B91" s="13" t="s">
         <v>154</v>
       </c>
@@ -34664,7 +34830,7 @@
       <c r="N91" s="90"/>
     </row>
     <row r="92" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="121"/>
+      <c r="A92" s="117"/>
       <c r="B92" s="13" t="s">
         <v>156</v>
       </c>
@@ -34699,7 +34865,7 @@
       <c r="N92" s="90"/>
     </row>
     <row r="93" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="121"/>
+      <c r="A93" s="117"/>
       <c r="B93" s="13" t="s">
         <v>158</v>
       </c>
@@ -34732,7 +34898,7 @@
       <c r="N93" s="90"/>
     </row>
     <row r="94" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="121"/>
+      <c r="A94" s="117"/>
       <c r="B94" s="13" t="s">
         <v>159</v>
       </c>
@@ -34767,7 +34933,7 @@
       <c r="N94" s="90"/>
     </row>
     <row r="95" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="121"/>
+      <c r="A95" s="117"/>
       <c r="B95" s="13" t="s">
         <v>161</v>
       </c>
@@ -34802,7 +34968,7 @@
       <c r="N95" s="90"/>
     </row>
     <row r="96" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="121"/>
+      <c r="A96" s="117"/>
       <c r="B96" s="13" t="s">
         <v>163</v>
       </c>
@@ -34837,7 +35003,7 @@
       <c r="N96" s="90"/>
     </row>
     <row r="97" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="121"/>
+      <c r="A97" s="117"/>
       <c r="B97" s="13" t="s">
         <v>165</v>
       </c>
@@ -34870,7 +35036,7 @@
       <c r="N97" s="90"/>
     </row>
     <row r="98" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="121"/>
+      <c r="A98" s="117"/>
       <c r="B98" s="13" t="s">
         <v>166</v>
       </c>
@@ -34905,7 +35071,7 @@
       <c r="N98" s="90"/>
     </row>
     <row r="99" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="121"/>
+      <c r="A99" s="117"/>
       <c r="B99" s="13" t="s">
         <v>168</v>
       </c>
@@ -34940,7 +35106,7 @@
       <c r="N99" s="90"/>
     </row>
     <row r="100" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="121"/>
+      <c r="A100" s="117"/>
       <c r="B100" s="13" t="s">
         <v>170</v>
       </c>
@@ -34973,7 +35139,7 @@
       <c r="N100" s="90"/>
     </row>
     <row r="101" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="121"/>
+      <c r="A101" s="117"/>
       <c r="B101" s="13" t="s">
         <v>171</v>
       </c>
@@ -35006,7 +35172,7 @@
       <c r="N101" s="90"/>
     </row>
     <row r="102" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="121"/>
+      <c r="A102" s="117"/>
       <c r="B102" s="13" t="s">
         <v>172</v>
       </c>
@@ -35041,7 +35207,7 @@
       <c r="N102" s="90"/>
     </row>
     <row r="103" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="121"/>
+      <c r="A103" s="117"/>
       <c r="B103" s="13" t="s">
         <v>174</v>
       </c>
@@ -35076,7 +35242,7 @@
       <c r="N103" s="90"/>
     </row>
     <row r="104" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="121"/>
+      <c r="A104" s="117"/>
       <c r="B104" s="13" t="s">
         <v>176</v>
       </c>
@@ -35111,7 +35277,7 @@
       <c r="N104" s="90"/>
     </row>
     <row r="105" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="121"/>
+      <c r="A105" s="117"/>
       <c r="B105" s="13" t="s">
         <v>178</v>
       </c>
@@ -35144,7 +35310,7 @@
       <c r="N105" s="90"/>
     </row>
     <row r="106" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="121"/>
+      <c r="A106" s="117"/>
       <c r="B106" s="13" t="s">
         <v>179</v>
       </c>
@@ -35177,7 +35343,7 @@
       <c r="N106" s="90"/>
     </row>
     <row r="107" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="121"/>
+      <c r="A107" s="117"/>
       <c r="B107" s="13" t="s">
         <v>180</v>
       </c>
@@ -35210,7 +35376,7 @@
       <c r="N107" s="90"/>
     </row>
     <row r="108" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="121"/>
+      <c r="A108" s="117"/>
       <c r="B108" s="13" t="s">
         <v>181</v>
       </c>
@@ -35243,7 +35409,7 @@
       <c r="N108" s="90"/>
     </row>
     <row r="109" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="121"/>
+      <c r="A109" s="117"/>
       <c r="B109" s="13" t="s">
         <v>182</v>
       </c>
@@ -35276,7 +35442,7 @@
       <c r="N109" s="90"/>
     </row>
     <row r="110" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="121"/>
+      <c r="A110" s="117"/>
       <c r="B110" s="13" t="s">
         <v>183</v>
       </c>
@@ -35311,7 +35477,7 @@
       <c r="N110" s="90"/>
     </row>
     <row r="111" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="121"/>
+      <c r="A111" s="117"/>
       <c r="B111" s="13" t="s">
         <v>185</v>
       </c>
@@ -35346,7 +35512,7 @@
       <c r="N111" s="90"/>
     </row>
     <row r="112" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="121"/>
+      <c r="A112" s="117"/>
       <c r="B112" s="13" t="s">
         <v>187</v>
       </c>
@@ -35379,7 +35545,7 @@
       <c r="N112" s="90"/>
     </row>
     <row r="113" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="121"/>
+      <c r="A113" s="117"/>
       <c r="B113" s="13" t="s">
         <v>188</v>
       </c>
@@ -35412,7 +35578,7 @@
       <c r="N113" s="90"/>
     </row>
     <row r="114" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="121"/>
+      <c r="A114" s="117"/>
       <c r="B114" s="13" t="s">
         <v>189</v>
       </c>
@@ -35445,7 +35611,7 @@
       <c r="N114" s="90"/>
     </row>
     <row r="115" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="121"/>
+      <c r="A115" s="117"/>
       <c r="B115" s="13" t="s">
         <v>190</v>
       </c>
@@ -35478,7 +35644,7 @@
       <c r="N115" s="90"/>
     </row>
     <row r="116" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="121"/>
+      <c r="A116" s="117"/>
       <c r="B116" s="13" t="s">
         <v>191</v>
       </c>
@@ -35511,7 +35677,7 @@
       <c r="N116" s="90"/>
     </row>
     <row r="117" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="121"/>
+      <c r="A117" s="117"/>
       <c r="B117" s="13" t="s">
         <v>192</v>
       </c>
@@ -35544,7 +35710,7 @@
       <c r="N117" s="90"/>
     </row>
     <row r="118" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="121"/>
+      <c r="A118" s="117"/>
       <c r="B118" s="13" t="s">
         <v>193</v>
       </c>
@@ -35577,7 +35743,7 @@
       <c r="N118" s="90"/>
     </row>
     <row r="119" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="121"/>
+      <c r="A119" s="117"/>
       <c r="B119" s="13" t="s">
         <v>194</v>
       </c>
@@ -35612,7 +35778,7 @@
       <c r="N119" s="90"/>
     </row>
     <row r="120" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="121"/>
+      <c r="A120" s="117"/>
       <c r="B120" s="13" t="s">
         <v>196</v>
       </c>
@@ -35645,7 +35811,7 @@
       <c r="N120" s="90"/>
     </row>
     <row r="121" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="121"/>
+      <c r="A121" s="117"/>
       <c r="B121" s="13" t="s">
         <v>197</v>
       </c>
@@ -35678,7 +35844,7 @@
       <c r="N121" s="90"/>
     </row>
     <row r="122" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="121"/>
+      <c r="A122" s="117"/>
       <c r="B122" s="13" t="s">
         <v>198</v>
       </c>
@@ -35711,7 +35877,7 @@
       <c r="N122" s="90"/>
     </row>
     <row r="123" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="121"/>
+      <c r="A123" s="117"/>
       <c r="B123" s="13" t="s">
         <v>199</v>
       </c>
@@ -35744,7 +35910,7 @@
       <c r="N123" s="90"/>
     </row>
     <row r="124" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="121"/>
+      <c r="A124" s="117"/>
       <c r="B124" s="13" t="s">
         <v>200</v>
       </c>
@@ -35777,7 +35943,7 @@
       <c r="N124" s="90"/>
     </row>
     <row r="125" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="121"/>
+      <c r="A125" s="117"/>
       <c r="B125" s="13" t="s">
         <v>201</v>
       </c>
@@ -35810,7 +35976,7 @@
       <c r="N125" s="90"/>
     </row>
     <row r="126" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="121"/>
+      <c r="A126" s="117"/>
       <c r="B126" s="13" t="s">
         <v>202</v>
       </c>
@@ -35843,7 +36009,7 @@
       <c r="N126" s="90"/>
     </row>
     <row r="127" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="121"/>
+      <c r="A127" s="117"/>
       <c r="B127" s="13" t="s">
         <v>203</v>
       </c>
@@ -35876,7 +36042,7 @@
       <c r="N127" s="90"/>
     </row>
     <row r="128" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="121"/>
+      <c r="A128" s="117"/>
       <c r="B128" s="13" t="s">
         <v>204</v>
       </c>
@@ -35909,7 +36075,7 @@
       <c r="N128" s="90"/>
     </row>
     <row r="129" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="121"/>
+      <c r="A129" s="117"/>
       <c r="B129" s="13" t="s">
         <v>205</v>
       </c>
@@ -35942,7 +36108,7 @@
       <c r="N129" s="90"/>
     </row>
     <row r="130" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="121"/>
+      <c r="A130" s="117"/>
       <c r="B130" s="13" t="s">
         <v>206</v>
       </c>
@@ -35977,7 +36143,7 @@
       <c r="N130" s="90"/>
     </row>
     <row r="131" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="121"/>
+      <c r="A131" s="117"/>
       <c r="B131" s="13" t="s">
         <v>208</v>
       </c>
@@ -36003,7 +36169,7 @@
       <c r="N131" s="90"/>
     </row>
     <row r="132" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="121"/>
+      <c r="A132" s="117"/>
       <c r="B132" s="13" t="s">
         <v>209</v>
       </c>
@@ -36036,7 +36202,7 @@
       <c r="N132" s="90"/>
     </row>
     <row r="133" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="121"/>
+      <c r="A133" s="117"/>
       <c r="B133" s="13" t="s">
         <v>210</v>
       </c>
@@ -36069,7 +36235,7 @@
       <c r="N133" s="90"/>
     </row>
     <row r="134" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="121"/>
+      <c r="A134" s="117"/>
       <c r="B134" s="13" t="s">
         <v>211</v>
       </c>
@@ -36102,7 +36268,7 @@
       <c r="N134" s="90"/>
     </row>
     <row r="135" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="121"/>
+      <c r="A135" s="117"/>
       <c r="B135" s="13" t="s">
         <v>212</v>
       </c>
@@ -36135,7 +36301,7 @@
       <c r="N135" s="90"/>
     </row>
     <row r="136" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="121"/>
+      <c r="A136" s="117"/>
       <c r="B136" s="13" t="s">
         <v>213</v>
       </c>
@@ -36168,7 +36334,7 @@
       <c r="N136" s="90"/>
     </row>
     <row r="137" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="121"/>
+      <c r="A137" s="117"/>
       <c r="B137" s="13" t="s">
         <v>214</v>
       </c>
@@ -36201,7 +36367,7 @@
       <c r="N137" s="90"/>
     </row>
     <row r="138" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="121"/>
+      <c r="A138" s="117"/>
       <c r="B138" s="13" t="s">
         <v>215</v>
       </c>
@@ -36234,7 +36400,7 @@
       <c r="N138" s="90"/>
     </row>
     <row r="139" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="121"/>
+      <c r="A139" s="117"/>
       <c r="B139" s="13" t="s">
         <v>216</v>
       </c>
@@ -36267,7 +36433,7 @@
       <c r="N139" s="90"/>
     </row>
     <row r="140" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="121"/>
+      <c r="A140" s="117"/>
       <c r="B140" s="13" t="s">
         <v>217</v>
       </c>
@@ -36300,7 +36466,7 @@
       <c r="N140" s="90"/>
     </row>
     <row r="141" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="121"/>
+      <c r="A141" s="117"/>
       <c r="B141" s="13" t="s">
         <v>218</v>
       </c>
@@ -36333,7 +36499,7 @@
       <c r="N141" s="90"/>
     </row>
     <row r="142" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="121"/>
+      <c r="A142" s="117"/>
       <c r="B142" s="13" t="s">
         <v>219</v>
       </c>
@@ -36366,7 +36532,7 @@
       <c r="N142" s="90"/>
     </row>
     <row r="143" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="121"/>
+      <c r="A143" s="117"/>
       <c r="B143" s="13" t="s">
         <v>220</v>
       </c>
@@ -36399,7 +36565,7 @@
       <c r="N143" s="90"/>
     </row>
     <row r="144" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="121"/>
+      <c r="A144" s="117"/>
       <c r="B144" s="13" t="s">
         <v>221</v>
       </c>
@@ -36432,7 +36598,7 @@
       <c r="N144" s="90"/>
     </row>
     <row r="145" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="121"/>
+      <c r="A145" s="117"/>
       <c r="B145" s="13" t="s">
         <v>222</v>
       </c>
@@ -36465,7 +36631,7 @@
       <c r="N145" s="90"/>
     </row>
     <row r="146" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="121"/>
+      <c r="A146" s="117"/>
       <c r="B146" s="13" t="s">
         <v>223</v>
       </c>
@@ -36498,7 +36664,7 @@
       <c r="N146" s="90"/>
     </row>
     <row r="147" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="121"/>
+      <c r="A147" s="117"/>
       <c r="B147" s="13" t="s">
         <v>224</v>
       </c>
@@ -36531,7 +36697,7 @@
       <c r="N147" s="90"/>
     </row>
     <row r="148" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="121"/>
+      <c r="A148" s="117"/>
       <c r="B148" s="13" t="s">
         <v>225</v>
       </c>
@@ -36560,7 +36726,7 @@
       <c r="N148" s="90"/>
     </row>
     <row r="149" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="121"/>
+      <c r="A149" s="117"/>
       <c r="B149" s="13" t="s">
         <v>226</v>
       </c>
@@ -36593,7 +36759,7 @@
       <c r="N149" s="90"/>
     </row>
     <row r="150" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="121"/>
+      <c r="A150" s="117"/>
       <c r="B150" s="13" t="s">
         <v>227</v>
       </c>
@@ -36626,7 +36792,7 @@
       <c r="N150" s="90"/>
     </row>
     <row r="151" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="121"/>
+      <c r="A151" s="117"/>
       <c r="B151" s="13" t="s">
         <v>228</v>
       </c>
@@ -36657,7 +36823,7 @@
       <c r="N151" s="90"/>
     </row>
     <row r="152" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="121"/>
+      <c r="A152" s="117"/>
       <c r="B152" s="13" t="s">
         <v>229</v>
       </c>
@@ -36690,7 +36856,7 @@
       <c r="N152" s="90"/>
     </row>
     <row r="153" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="121"/>
+      <c r="A153" s="117"/>
       <c r="B153" s="13" t="s">
         <v>230</v>
       </c>
@@ -36723,7 +36889,7 @@
       <c r="N153" s="90"/>
     </row>
     <row r="154" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="121"/>
+      <c r="A154" s="117"/>
       <c r="B154" s="57" t="s">
         <v>231</v>
       </c>
@@ -36752,7 +36918,7 @@
       <c r="N154" s="90"/>
     </row>
     <row r="155" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="121"/>
+      <c r="A155" s="117"/>
       <c r="B155" s="57" t="s">
         <v>232</v>
       </c>
@@ -36785,7 +36951,7 @@
       <c r="N155" s="90"/>
     </row>
     <row r="156" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="121"/>
+      <c r="A156" s="117"/>
       <c r="B156" s="57" t="s">
         <v>233</v>
       </c>
@@ -36815,7 +36981,7 @@
       <c r="N156" s="90"/>
     </row>
     <row r="157" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="121"/>
+      <c r="A157" s="117"/>
       <c r="B157" s="57" t="s">
         <v>234</v>
       </c>
@@ -36845,7 +37011,7 @@
       <c r="N157" s="90"/>
     </row>
     <row r="158" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="121"/>
+      <c r="A158" s="117"/>
       <c r="B158" s="57" t="s">
         <v>235</v>
       </c>
@@ -36875,7 +37041,7 @@
       <c r="N158" s="90"/>
     </row>
     <row r="159" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="121"/>
+      <c r="A159" s="117"/>
       <c r="B159" s="57" t="s">
         <v>236</v>
       </c>
@@ -36906,7 +37072,7 @@
       <c r="N159" s="90"/>
     </row>
     <row r="160" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="121"/>
+      <c r="A160" s="117"/>
       <c r="B160" s="57" t="s">
         <v>237</v>
       </c>
@@ -36934,7 +37100,7 @@
       <c r="N160" s="90"/>
     </row>
     <row r="161" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="121"/>
+      <c r="A161" s="117"/>
       <c r="B161" s="57" t="s">
         <v>238</v>
       </c>
@@ -36964,7 +37130,7 @@
       <c r="N161" s="90"/>
     </row>
     <row r="162" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="121"/>
+      <c r="A162" s="117"/>
       <c r="B162" s="57" t="s">
         <v>239</v>
       </c>
@@ -36994,7 +37160,7 @@
       <c r="N162" s="90"/>
     </row>
     <row r="163" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="121"/>
+      <c r="A163" s="117"/>
       <c r="B163" s="57" t="s">
         <v>240</v>
       </c>
@@ -37024,7 +37190,7 @@
       <c r="N163" s="90"/>
     </row>
     <row r="164" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="121"/>
+      <c r="A164" s="117"/>
       <c r="B164" s="57" t="s">
         <v>241</v>
       </c>
@@ -37054,7 +37220,7 @@
       <c r="N164" s="90"/>
     </row>
     <row r="165" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="121"/>
+      <c r="A165" s="117"/>
       <c r="B165" s="57" t="s">
         <v>242</v>
       </c>
@@ -37086,7 +37252,7 @@
       <c r="N165" s="90"/>
     </row>
     <row r="166" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="121"/>
+      <c r="A166" s="117"/>
       <c r="B166" s="57" t="s">
         <v>244</v>
       </c>
@@ -37114,7 +37280,7 @@
       <c r="N166" s="90"/>
     </row>
     <row r="167" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="121"/>
+      <c r="A167" s="117"/>
       <c r="B167" s="57" t="s">
         <v>246</v>
       </c>
@@ -37140,7 +37306,7 @@
       <c r="N167" s="90"/>
     </row>
     <row r="168" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="121"/>
+      <c r="A168" s="117"/>
       <c r="B168" s="57"/>
       <c r="C168" s="15"/>
       <c r="D168" s="9"/>
@@ -37164,7 +37330,7 @@
       <c r="N168" s="90"/>
     </row>
     <row r="169" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="121"/>
+      <c r="A169" s="117"/>
       <c r="B169" s="57"/>
       <c r="C169" s="15"/>
       <c r="D169" s="9"/>
@@ -37192,7 +37358,7 @@
       <c r="N169" s="90"/>
     </row>
     <row r="170" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="121"/>
+      <c r="A170" s="117"/>
       <c r="B170" s="57"/>
       <c r="C170" s="15"/>
       <c r="D170" s="9"/>
@@ -37218,7 +37384,7 @@
       <c r="N170" s="90"/>
     </row>
     <row r="171" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="121"/>
+      <c r="A171" s="117"/>
       <c r="B171" s="57"/>
       <c r="C171" s="15"/>
       <c r="D171" s="9"/>
@@ -37244,22 +37410,22 @@
       <c r="N171" s="90"/>
     </row>
     <row r="173" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D173" s="118" t="s">
+      <c r="D173" s="114" t="s">
         <v>247</v>
       </c>
-      <c r="E173" s="118"/>
-      <c r="F173" s="119"/>
+      <c r="E173" s="114"/>
+      <c r="F173" s="115"/>
       <c r="G173" s="25">
         <f>SUM(G6:G171)</f>
-        <v>0</v>
+        <v>2350000</v>
       </c>
       <c r="H173" s="25">
         <f>SUM(H6:H171)</f>
-        <v>0</v>
+        <v>1450000</v>
       </c>
       <c r="I173" s="25">
         <f>SUM(I6:I171)</f>
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="J173" s="25">
         <f>SUM(J6:J171)</f>
@@ -37268,11 +37434,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="A6:A84"/>
-    <mergeCell ref="A86:A171"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G4:G5"/>
@@ -37284,6 +37445,11 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="A6:A84"/>
+    <mergeCell ref="A86:A171"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -37324,10 +37490,10 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A4:N103"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView topLeftCell="D90" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J100"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37343,61 +37509,69 @@
     <col min="14" max="14" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="114" t="s">
+      <c r="G4" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="114" t="s">
+      <c r="I4" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="114" t="s">
+      <c r="J4" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="114" t="s">
+      <c r="L4" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="114" t="s">
+      <c r="M4" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="119" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
     </row>
     <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90"/>
@@ -40514,11 +40688,11 @@
       <c r="N100" s="90"/>
     </row>
     <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D103" s="118" t="s">
+      <c r="D103" s="114" t="s">
         <v>247</v>
       </c>
-      <c r="E103" s="118"/>
-      <c r="F103" s="119"/>
+      <c r="E103" s="114"/>
+      <c r="F103" s="115"/>
       <c r="G103" s="25">
         <f>SUM(G6:G100)</f>
         <v>0</v>
@@ -40538,6 +40712,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="D103:F103"/>
     <mergeCell ref="G4:G5"/>
@@ -40547,11 +40726,6 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -40564,10 +40738,10 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A4:N70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J66"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40584,61 +40758,69 @@
     <col min="14" max="14" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="114" t="s">
+      <c r="G4" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="114" t="s">
+      <c r="I4" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="114" t="s">
+      <c r="J4" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="114" t="s">
+      <c r="L4" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="114" t="s">
+      <c r="M4" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="119" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
     </row>
     <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90"/>
@@ -40648,7 +40830,7 @@
       <c r="C6" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="8">
         <v>85000</v>
       </c>
@@ -42680,11 +42862,11 @@
       <c r="N67" s="90"/>
     </row>
     <row r="70" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D70" s="118" t="s">
+      <c r="D70" s="114" t="s">
         <v>247</v>
       </c>
-      <c r="E70" s="118"/>
-      <c r="F70" s="119"/>
+      <c r="E70" s="114"/>
+      <c r="F70" s="115"/>
       <c r="G70" s="25">
         <f>SUM(G6:G67)</f>
         <v>0</v>
@@ -42704,6 +42886,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="D70:F70"/>
     <mergeCell ref="G4:G5"/>
@@ -42713,11 +42900,6 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -42730,10 +42912,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A4:AF20"/>
+  <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView topLeftCell="N14" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:P17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42755,67 +42937,72 @@
     <col min="26" max="32" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="119" t="s">
         <v>457</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114" t="s">
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="114" t="s">
+      <c r="L4" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="114" t="s">
+      <c r="M4" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="114" t="s">
+      <c r="O4" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="114" t="s">
+      <c r="P4" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="114" t="s">
+      <c r="R4" s="119" t="s">
         <v>247</v>
       </c>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="114"/>
-      <c r="X4" s="114"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="114" t="s">
+      <c r="Z4" s="119" t="s">
         <v>458</v>
       </c>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="114"/>
-      <c r="AE4" s="114"/>
-      <c r="AF4" s="114"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="114"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="119"/>
       <c r="D5" s="1">
         <v>35</v>
       </c>
@@ -42837,12 +43024,12 @@
       <c r="J5" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
       <c r="R5" s="1">
         <v>35</v>
       </c>
@@ -42899,7 +43086,10 @@
       <c r="G6" s="90"/>
       <c r="H6" s="90"/>
       <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
+      <c r="J6" s="90">
+        <f t="shared" ref="J6:J17" si="0">SUM(D6:I6)</f>
+        <v>0</v>
+      </c>
       <c r="K6" s="10">
         <v>135500</v>
       </c>
@@ -42926,36 +43116,36 @@
       <c r="V6" s="90"/>
       <c r="W6" s="90"/>
       <c r="X6" s="90">
-        <f t="shared" ref="X6:X17" si="0">SUM(R6:W6)</f>
+        <f t="shared" ref="X6:X17" si="1">SUM(R6:W6)</f>
         <v>0</v>
       </c>
       <c r="Y6" s="3"/>
       <c r="Z6" s="90">
-        <f t="shared" ref="Z6:Z17" si="1">R6-D6</f>
+        <f t="shared" ref="Z6:Z17" si="2">R6-D6</f>
         <v>0</v>
       </c>
       <c r="AA6" s="90">
-        <f t="shared" ref="AA6:AE7" si="2">S6-E6</f>
+        <f t="shared" ref="AA6:AE7" si="3">S6-E6</f>
         <v>0</v>
       </c>
       <c r="AB6" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC6" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD6" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE6" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF6" s="3">
-        <f t="shared" ref="AF6:AF17" si="3">X6-J6</f>
+        <f t="shared" ref="AF6:AF17" si="4">X6-J6</f>
         <v>0</v>
       </c>
     </row>
@@ -42971,7 +43161,10 @@
       <c r="G7" s="90"/>
       <c r="H7" s="90"/>
       <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
+      <c r="J7" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K7" s="10">
         <v>74000</v>
       </c>
@@ -42979,15 +43172,15 @@
         <v>140000</v>
       </c>
       <c r="M7" s="90">
-        <f t="shared" ref="M7:M17" si="4">L7*J7</f>
+        <f t="shared" ref="M7:M17" si="5">L7*J7</f>
         <v>0</v>
       </c>
       <c r="N7" s="90">
-        <f t="shared" ref="N7:N17" si="5">K7*J7</f>
+        <f t="shared" ref="N7:N17" si="6">K7*J7</f>
         <v>0</v>
       </c>
       <c r="O7" s="90">
-        <f t="shared" ref="O7:O17" si="6">M7-N7</f>
+        <f t="shared" ref="O7:O17" si="7">M7-N7</f>
         <v>0</v>
       </c>
       <c r="P7" s="90"/>
@@ -43013,31 +43206,31 @@
       </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA7" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AB7" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AC7" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AD7" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE7" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -43054,7 +43247,7 @@
       <c r="H8" s="90"/>
       <c r="I8" s="90"/>
       <c r="J8" s="90">
-        <f t="shared" ref="J8:J17" si="7">SUM(D8:I8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="10">
@@ -43064,15 +43257,15 @@
         <v>190000</v>
       </c>
       <c r="M8" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N8" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O8" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P8" s="90"/>
@@ -43083,12 +43276,12 @@
       <c r="V8" s="90"/>
       <c r="W8" s="90"/>
       <c r="X8" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA8" s="90">
@@ -43112,7 +43305,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -43129,7 +43322,7 @@
       <c r="H9" s="90"/>
       <c r="I9" s="90"/>
       <c r="J9" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="10">
@@ -43141,11 +43334,11 @@
         <v>0</v>
       </c>
       <c r="N9" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O9" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P9" s="90"/>
@@ -43156,12 +43349,12 @@
       <c r="V9" s="90"/>
       <c r="W9" s="90"/>
       <c r="X9" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y9" s="3"/>
       <c r="Z9" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA9" s="90">
@@ -43185,7 +43378,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -43202,7 +43395,7 @@
       <c r="H10" s="90"/>
       <c r="I10" s="90"/>
       <c r="J10" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="10">
@@ -43210,15 +43403,15 @@
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N10" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O10" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P10" s="90"/>
@@ -43229,12 +43422,12 @@
       <c r="V10" s="90"/>
       <c r="W10" s="90"/>
       <c r="X10" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA10" s="90">
@@ -43258,7 +43451,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -43275,7 +43468,7 @@
       <c r="H11" s="90"/>
       <c r="I11" s="90"/>
       <c r="J11" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11" s="10">
@@ -43283,15 +43476,15 @@
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N11" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O11" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P11" s="90"/>
@@ -43302,12 +43495,12 @@
       <c r="V11" s="90"/>
       <c r="W11" s="90"/>
       <c r="X11" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y11" s="3"/>
       <c r="Z11" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA11" s="90">
@@ -43331,7 +43524,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -43348,7 +43541,7 @@
       <c r="H12" s="90"/>
       <c r="I12" s="90"/>
       <c r="J12" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K12" s="10">
@@ -43356,15 +43549,15 @@
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N12" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O12" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P12" s="90"/>
@@ -43375,12 +43568,12 @@
       <c r="V12" s="90"/>
       <c r="W12" s="90"/>
       <c r="X12" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y12" s="3"/>
       <c r="Z12" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA12" s="90">
@@ -43404,7 +43597,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -43421,7 +43614,7 @@
       <c r="H13" s="90"/>
       <c r="I13" s="90"/>
       <c r="J13" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K13" s="10">
@@ -43431,15 +43624,15 @@
         <v>230000</v>
       </c>
       <c r="M13" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N13" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O13" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P13" s="90"/>
@@ -43450,12 +43643,12 @@
       <c r="V13" s="90"/>
       <c r="W13" s="90"/>
       <c r="X13" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y13" s="3"/>
       <c r="Z13" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA13" s="90">
@@ -43479,7 +43672,7 @@
         <v>0</v>
       </c>
       <c r="AF13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -43496,7 +43689,7 @@
       <c r="H14" s="55"/>
       <c r="I14" s="55"/>
       <c r="J14" s="55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14" s="8">
@@ -43506,15 +43699,15 @@
         <v>230000</v>
       </c>
       <c r="M14" s="55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N14" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O14" s="55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P14" s="55"/>
@@ -43525,12 +43718,12 @@
       <c r="V14" s="55"/>
       <c r="W14" s="55"/>
       <c r="X14" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y14" s="56"/>
       <c r="Z14" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA14" s="55">
@@ -43554,7 +43747,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -43571,7 +43764,7 @@
       <c r="H15" s="90"/>
       <c r="I15" s="90"/>
       <c r="J15" s="55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K15" s="10">
@@ -43579,15 +43772,15 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N15" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O15" s="55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P15" s="90"/>
@@ -43601,12 +43794,12 @@
       <c r="V15" s="90"/>
       <c r="W15" s="90"/>
       <c r="X15" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Y15" s="3"/>
       <c r="Z15" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA15" s="55">
@@ -43630,7 +43823,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -43645,21 +43838,21 @@
       <c r="H16" s="90"/>
       <c r="I16" s="90"/>
       <c r="J16" s="55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N16" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O16" s="55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P16" s="90"/>
@@ -43671,12 +43864,12 @@
       <c r="V16" s="90"/>
       <c r="W16" s="90"/>
       <c r="X16" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA16" s="55">
@@ -43700,7 +43893,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -43715,21 +43908,21 @@
       <c r="H17" s="90"/>
       <c r="I17" s="90"/>
       <c r="J17" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N17" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O17" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P17" s="90"/>
@@ -43741,12 +43934,12 @@
       <c r="V17" s="90"/>
       <c r="W17" s="90"/>
       <c r="X17" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA17" s="90">
@@ -43770,7 +43963,7 @@
         <v>0</v>
       </c>
       <c r="AF17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -43808,11 +44001,11 @@
       <c r="AF18" s="54"/>
     </row>
     <row r="20" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J20" s="118" t="s">
+      <c r="J20" s="114" t="s">
         <v>247</v>
       </c>
-      <c r="K20" s="118"/>
-      <c r="L20" s="119"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="115"/>
       <c r="M20" s="25">
         <f>SUM(M6:M17)</f>
         <v>0</v>
@@ -43856,10 +44049,10 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A4:N67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView topLeftCell="H59" zoomScale="184" zoomScaleNormal="184" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D64"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J10" sqref="J6:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43875,61 +44068,69 @@
     <col min="14" max="14" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="114" t="s">
+      <c r="G4" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="114" t="s">
+      <c r="I4" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="114" t="s">
+      <c r="J4" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="114" t="s">
+      <c r="L4" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="114" t="s">
+      <c r="M4" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="119" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
     </row>
     <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90"/>
@@ -43939,7 +44140,7 @@
       <c r="C6" s="44" t="s">
         <v>470</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="8">
         <v>69500</v>
       </c>
@@ -43974,7 +44175,7 @@
       <c r="C7" s="44" t="s">
         <v>472</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="8">
         <v>65600</v>
       </c>
@@ -44009,7 +44210,7 @@
       <c r="C8" s="44" t="s">
         <v>474</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="8">
         <v>72100</v>
       </c>
@@ -44044,7 +44245,7 @@
       <c r="C9" s="44" t="s">
         <v>476</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="8">
         <v>79900</v>
       </c>
@@ -45855,11 +46056,11 @@
       <c r="N64" s="90"/>
     </row>
     <row r="67" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D67" s="118" t="s">
+      <c r="D67" s="114" t="s">
         <v>247</v>
       </c>
-      <c r="E67" s="118"/>
-      <c r="F67" s="119"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="115"/>
       <c r="G67" s="25">
         <f>SUM(G6:G64)</f>
         <v>0</v>
@@ -45879,6 +46080,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="D67:F67"/>
     <mergeCell ref="G4:G5"/>
@@ -45888,11 +46094,6 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -45929,60 +46130,60 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="114" t="s">
+      <c r="G4" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="114" t="s">
+      <c r="I4" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="114" t="s">
+      <c r="J4" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="114" t="s">
+      <c r="L4" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="114" t="s">
+      <c r="M4" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="119" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
     </row>
     <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90"/>
@@ -49957,11 +50158,11 @@
       <c r="N134" s="90"/>
     </row>
     <row r="137" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D137" s="118" t="s">
+      <c r="D137" s="114" t="s">
         <v>247</v>
       </c>
-      <c r="E137" s="118"/>
-      <c r="F137" s="119"/>
+      <c r="E137" s="114"/>
+      <c r="F137" s="115"/>
       <c r="G137" s="25">
         <f>SUM(G6:G134)</f>
         <v>0</v>
@@ -49981,6 +50182,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="D137:F137"/>
     <mergeCell ref="G4:G5"/>
@@ -49990,11 +50196,6 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
